--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="140" windowWidth="27160" windowHeight="15000" activeTab="5"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="27160" windowHeight="15000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>25% des Datendesigns</t>
+  </si>
+  <si>
+    <t>60% des Datendesigns</t>
+  </si>
+  <si>
+    <t>Projektfortschrittsbericht</t>
   </si>
 </sst>
 </file>
@@ -533,8 +539,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -675,9 +685,13 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -813,12 +827,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2089966344"/>
-        <c:axId val="2089967752"/>
+        <c:axId val="-2141159144"/>
+        <c:axId val="-2141162104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2089966344"/>
+        <c:axId val="-2141159144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +841,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089967752"/>
+        <c:crossAx val="-2141162104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -835,7 +849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089967752"/>
+        <c:axId val="-2141162104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,7 +865,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2089966344"/>
+        <c:crossAx val="-2141159144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,13 +985,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,12 +1007,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2090048328"/>
-        <c:axId val="-2135689864"/>
+        <c:axId val="-2143467896"/>
+        <c:axId val="-2129454568"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2090048328"/>
+        <c:axId val="-2143467896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135689864"/>
+        <c:crossAx val="-2129454568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1015,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135689864"/>
+        <c:axId val="-2129454568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090048328"/>
+        <c:crossAx val="-2143467896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,7 +1477,7 @@
       </c>
       <c r="B6" s="19">
         <f>Projektmanagement!J7</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C6" s="30">
         <v>1</v>
@@ -1489,7 +1503,7 @@
       </c>
       <c r="B8" s="21">
         <f>Projektmanagement!J3</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
@@ -1500,7 +1514,7 @@
       </c>
       <c r="B9" s="21">
         <f>Projektmanagement!J4</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -1533,7 +1547,7 @@
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
@@ -1548,7 +1562,7 @@
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
@@ -1789,7 +1803,7 @@
       <c r="C35" s="54"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!J11,'Testing &amp; Abschluss'!I13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -1799,7 +1813,7 @@
       <c r="C36" s="48"/>
       <c r="D36" s="42">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!J12,'Testing &amp; Abschluss'!I14)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" thickBot="1">
@@ -1809,7 +1823,7 @@
       <c r="C37" s="50"/>
       <c r="D37" s="40">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!J13,'Testing &amp; Abschluss'!I15)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
@@ -1840,7 +1854,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="B2:F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1886,7 +1900,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>33</v>
@@ -1934,18 +1948,35 @@
       <c r="I3" s="67"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="D4" s="1"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41234</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="H4" s="67" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="67"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1978,7 +2009,7 @@
       <c r="I7" s="64"/>
       <c r="J7" s="10">
         <f>SUM(J2:J6)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2019,7 +2050,7 @@
       </c>
       <c r="I14" s="4">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -2062,7 +2093,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2076,7 +2106,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2131,7 +2161,7 @@
         <v>41227</v>
       </c>
       <c r="E2" s="3">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>56</v>
@@ -2142,7 +2172,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2184,7 +2214,7 @@
       <c r="I6" s="68"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2235,7 +2265,7 @@
       </c>
       <c r="I14" s="34">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2430,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2501,7 +2531,24 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="D3" s="7"/>
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="7">
+        <v>41234</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H3" s="71" t="s">
         <v>41</v>
       </c>
@@ -2572,7 +2619,7 @@
       </c>
       <c r="I12" s="38">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2775,6 +2822,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3333,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="27160" windowHeight="15000" activeTab="3"/>
+    <workbookView xWindow="3195" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -263,10 +263,22 @@
     <t>25% des Datendesigns</t>
   </si>
   <si>
-    <t>60% des Datendesigns</t>
-  </si>
-  <si>
     <t>Projektfortschrittsbericht</t>
+  </si>
+  <si>
+    <t>Ermöglichen der übergabe zwischen C# und F#</t>
+  </si>
+  <si>
+    <t>Funktionierende Übergabe</t>
+  </si>
+  <si>
+    <t>40% des Datendesigns</t>
+  </si>
+  <si>
+    <t>70% des Datendesigns</t>
+  </si>
+  <si>
+    <t>90% des Datendesign mit ERD und ERM</t>
   </si>
 </sst>
 </file>
@@ -686,12 +698,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -712,7 +724,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -739,7 +751,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -808,10 +819,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,12 +838,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="-2141159144"/>
-        <c:axId val="-2141162104"/>
+        <c:axId val="85827584"/>
+        <c:axId val="85829120"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2141159144"/>
+        <c:axId val="85827584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +852,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141162104"/>
+        <c:crossAx val="85829120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -849,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141162104"/>
+        <c:axId val="85829120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +876,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2141159144"/>
+        <c:crossAx val="85827584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -879,7 +890,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -888,7 +899,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -900,7 +911,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -985,13 +995,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,12 +1017,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2143467896"/>
-        <c:axId val="-2129454568"/>
+        <c:axId val="40634240"/>
+        <c:axId val="40635776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2143467896"/>
+        <c:axId val="40634240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129454568"/>
+        <c:crossAx val="40635776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129454568"/>
+        <c:axId val="40635776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143467896"/>
+        <c:crossAx val="40634240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1051,7 +1061,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1415,13 +1425,13 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
       <c r="B1" s="57" t="s">
         <v>24</v>
@@ -1432,7 +1442,7 @@
       <c r="D1" s="52"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56"/>
       <c r="B2" s="58"/>
       <c r="C2" s="15" t="s">
@@ -1442,13 +1452,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1457,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="57"/>
       <c r="C4" s="59" t="s">
@@ -1465,13 +1475,13 @@
       </c>
       <c r="D4" s="60"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
       <c r="B5" s="58"/>
       <c r="C5" s="61"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1497,7 +1507,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +1518,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1519,7 +1529,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1530,7 +1540,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1541,13 +1551,13 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
@@ -1556,18 +1566,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
@@ -1578,7 +1588,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>59</v>
       </c>
@@ -1589,7 +1599,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>60</v>
       </c>
@@ -1600,7 +1610,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
@@ -1615,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>61</v>
       </c>
@@ -1626,7 +1636,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -1637,7 +1647,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1648,7 +1658,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>64</v>
       </c>
@@ -1659,7 +1669,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>67</v>
       </c>
@@ -1674,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
@@ -1685,7 +1695,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
@@ -1696,7 +1706,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>70</v>
       </c>
@@ -1707,7 +1717,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -1733,7 +1743,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
@@ -1744,7 +1754,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
@@ -1755,7 +1765,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>74</v>
       </c>
@@ -1766,7 +1776,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -1777,7 +1787,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>76</v>
       </c>
@@ -1788,25 +1798,25 @@
       <c r="C32" s="46"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1"/>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="41"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1">
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="54"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!J11,'Testing &amp; Abschluss'!I13)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="47" t="s">
         <v>15</v>
       </c>
@@ -1816,17 +1826,17 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1">
+    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="50"/>
       <c r="D37" s="40">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!J13,'Testing &amp; Abschluss'!I15)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -1857,18 +1867,18 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="27"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="27"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1895,7 +1905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1951,7 +1961,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1959,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1">
         <v>41234</v>
@@ -1968,7 +1978,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="67" t="s">
         <v>35</v>
@@ -1979,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>11</v>
@@ -1990,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="65" t="s">
         <v>9</v>
@@ -2001,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="H7" s="63" t="s">
         <v>16</v>
@@ -2012,19 +2022,19 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2033,7 +2043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>28</v>
@@ -2043,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2053,7 +2063,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>29</v>
@@ -2063,15 +2073,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2106,21 +2116,21 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2147,7 +2157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2172,10 +2182,28 @@
       <c r="I2" s="70"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41241</v>
+      </c>
+      <c r="E3" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="H3" s="71" t="s">
         <v>37</v>
       </c>
@@ -2185,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H4" s="71" t="s">
         <v>38</v>
       </c>
@@ -2195,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="9"/>
       <c r="H5" s="73" t="s">
         <v>39</v>
@@ -2206,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="63" t="s">
         <v>16</v>
@@ -2214,22 +2242,22 @@
       <c r="I6" s="68"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -2238,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2248,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2258,176 +2286,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="34">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2461,21 +2489,21 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2502,7 +2530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2530,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2547,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" s="71" t="s">
         <v>41</v>
@@ -2558,8 +2586,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="D4" s="8"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41238</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H4" s="71" t="s">
         <v>42</v>
       </c>
@@ -2569,8 +2614,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="D5" s="9"/>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="8">
+        <v>41241</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H5" s="73" t="s">
         <v>43</v>
       </c>
@@ -2580,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="63" t="s">
         <v>16</v>
@@ -2591,19 +2653,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="H11" s="37" t="s">
         <v>5</v>
@@ -2612,17 +2674,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="38" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="38">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="38" t="s">
         <v>6</v>
@@ -2632,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="36" t="s">
         <v>29</v>
@@ -2642,166 +2704,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2814,10 +2876,10 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16 A18:A23 A25:A27 A30:A40 A42:A47 A50:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A18:A23 A25:A27 A30:A40 A42:A47 A5:A16 A2:A3">
       <formula1>$H$12:$H$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576 B1:B3">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -2839,19 +2901,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2878,7 +2940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2898,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="7"/>
       <c r="H3" s="67" t="s">
         <v>45</v>
@@ -2909,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="8"/>
       <c r="H4" s="67" t="s">
         <v>46</v>
@@ -2920,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="63" t="s">
         <v>16</v>
@@ -2931,19 +2993,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="H10" s="41" t="s">
         <v>5</v>
@@ -2952,7 +3014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="H11" s="42" t="s">
         <v>28</v>
@@ -2962,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="42" t="s">
         <v>6</v>
@@ -2972,7 +3034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="40" t="s">
         <v>29</v>
@@ -2982,370 +3044,370 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1">
+    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1">
+    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1">
+    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1">
+    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1">
+    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1">
+    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1">
+    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1">
+    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1">
+    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1">
+    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1">
+    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1">
+    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1">
+    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1">
+    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1">
+    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1">
+    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -3385,19 +3447,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="45.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="45.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3424,7 +3486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="H2" s="69" t="s">
         <v>47</v>
@@ -3435,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="67" t="s">
         <v>48</v>
@@ -3446,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="67" t="s">
         <v>49</v>
@@ -3457,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>50</v>
@@ -3468,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="H6" s="71" t="s">
         <v>51</v>
@@ -3479,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="H7" s="73" t="s">
         <v>52</v>
@@ -3490,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="H8" s="63" t="s">
         <v>16</v>
@@ -3501,16 +3563,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -3518,7 +3580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="35" t="s">
         <v>28</v>
       </c>
@@ -3527,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -3536,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="34" t="s">
         <v>29</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -838,12 +838,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="85827584"/>
-        <c:axId val="85829120"/>
+        <c:axId val="93102080"/>
+        <c:axId val="93103616"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85827584"/>
+        <c:axId val="93102080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +852,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85829120"/>
+        <c:crossAx val="93103616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85829120"/>
+        <c:axId val="93103616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +876,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85827584"/>
+        <c:crossAx val="93102080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -995,13 +995,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,12 +1017,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="40634240"/>
-        <c:axId val="40635776"/>
+        <c:axId val="93456256"/>
+        <c:axId val="93457792"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="40634240"/>
+        <c:axId val="93456256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40635776"/>
+        <c:crossAx val="93457792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40635776"/>
+        <c:axId val="93457792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40634240"/>
+        <c:crossAx val="93456256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1813,7 +1813,7 @@
       <c r="C35" s="54"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!J11,'Testing &amp; Abschluss'!I13)</f>
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
       <c r="C37" s="50"/>
       <c r="D37" s="40">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!J13,'Testing &amp; Abschluss'!I15)</f>
-        <v>9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2489,7 +2489,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2643,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41248</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.5</v>
+      </c>
       <c r="H6" s="63" t="s">
         <v>16</v>
       </c>
@@ -2654,7 +2668,21 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="8"/>
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41248</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
@@ -2681,7 +2709,7 @@
       </c>
       <c r="I12" s="38">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2701,7 +2729,7 @@
       </c>
       <c r="I14" s="36">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2876,10 +2904,10 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A18:A23 A25:A27 A30:A40 A42:A47 A5:A16 A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A18:A23 A25:A27 A30:A40 A42:A47 A2:A3 A5:A16">
       <formula1>$H$12:$H$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576 B1:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B5:B1048576">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="3195" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -282,6 +282,24 @@
   </si>
   <si>
     <t>DatabaseFrameworkMetadataSchema</t>
+  </si>
+  <si>
+    <t>Fertiges DB Design</t>
+  </si>
+  <si>
+    <t>Verbesserungen</t>
+  </si>
+  <si>
+    <t>Create Script</t>
+  </si>
+  <si>
+    <t>Erstellt</t>
+  </si>
+  <si>
+    <t>ERD verbessert</t>
+  </si>
+  <si>
+    <t>verbessert</t>
   </si>
 </sst>
 </file>
@@ -615,6 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,7 +718,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -842,12 +860,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="92512256"/>
-        <c:axId val="92513792"/>
+        <c:axId val="74433280"/>
+        <c:axId val="74434816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="92512256"/>
+        <c:axId val="74433280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +874,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92513792"/>
+        <c:crossAx val="74434816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -864,7 +882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92513792"/>
+        <c:axId val="74434816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +898,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92512256"/>
+        <c:crossAx val="74433280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -999,13 +1017,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16.5</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,12 +1039,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="102639488"/>
-        <c:axId val="102641024"/>
+        <c:axId val="85019264"/>
+        <c:axId val="85021056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="102639488"/>
+        <c:axId val="85019264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102641024"/>
+        <c:crossAx val="85021056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1043,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102641024"/>
+        <c:axId val="85021056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102639488"/>
+        <c:crossAx val="85019264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1436,19 +1454,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="52"/>
+      <c r="D1" s="53"/>
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
@@ -1472,18 +1490,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -1811,33 +1829,33 @@
       <c r="D34" s="41"/>
     </row>
     <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!J11,'Testing &amp; Abschluss'!I13)</f>
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="48"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="42">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!J12,'Testing &amp; Abschluss'!I14)</f>
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="40">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!J13,'Testing &amp; Abschluss'!I15)</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1867,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,10 +1919,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="66"/>
+      <c r="H1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="67"/>
       <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
@@ -1928,10 +1946,10 @@
       <c r="F2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="67"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
@@ -1956,10 +1974,10 @@
       <c r="F3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="67"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>3</v>
@@ -1984,10 +2002,10 @@
       <c r="F4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="67"/>
+      <c r="I4" s="68"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>2</v>
@@ -2012,10 +2030,10 @@
       <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="67"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
@@ -2023,10 +2041,10 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="5">
         <f>SUMIF(B:B,H6,E:E)</f>
         <v>0</v>
@@ -2034,10 +2052,10 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="64"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="10">
         <f>SUM(J2:J6)</f>
         <v>5</v>
@@ -2170,10 +2188,10 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="66"/>
+      <c r="H1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="67"/>
       <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
@@ -2197,10 +2215,10 @@
       <c r="F2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="70"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>9</v>
@@ -2225,20 +2243,20 @@
       <c r="F3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="72"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>0</v>
@@ -2246,10 +2264,10 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="9"/>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
@@ -2257,10 +2275,10 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="68"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
         <v>9</v>
@@ -2509,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2537,7 @@
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="77"/>
+    <col min="5" max="5" width="10.85546875" style="47"/>
     <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
@@ -2538,16 +2556,16 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="66"/>
+      <c r="H1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="67"/>
       <c r="J1" s="37" t="s">
         <v>10</v>
       </c>
@@ -2565,16 +2583,16 @@
       <c r="D2" s="7">
         <v>41227</v>
       </c>
-      <c r="E2" s="77">
+      <c r="E2" s="47">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="70"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="38">
         <f>SUMIF(B:B,Gesamtstatus!A18,E:E)</f>
         <v>0</v>
@@ -2593,16 +2611,16 @@
       <c r="D3" s="7">
         <v>41234</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="47">
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="72"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="38">
         <f>SUMIF(B:B,Gesamtstatus!A19,E:E)</f>
         <v>0</v>
@@ -2621,16 +2639,16 @@
       <c r="D4" s="1">
         <v>41238</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="47">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="38">
         <f>SUMIF(B:B,Gesamtstatus!A20,E:E)</f>
         <v>0</v>
@@ -2649,16 +2667,16 @@
       <c r="D5" s="8">
         <v>41241</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="47">
         <v>4.5</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="38">
         <f>SUMIF(B:B,Gesamtstatus!A21,E:E)</f>
         <v>0</v>
@@ -2677,13 +2695,13 @@
       <c r="D6" s="1">
         <v>41248</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="47">
         <v>2.5</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="68"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
         <v>0</v>
@@ -2702,7 +2720,7 @@
       <c r="D7" s="1">
         <v>41248</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="47">
         <v>2.5</v>
       </c>
     </row>
@@ -2719,18 +2737,69 @@
       <c r="D8" s="1">
         <v>41255</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="47">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="7">
+        <v>41261</v>
+      </c>
+      <c r="E9" s="47">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="7">
+        <v>41261</v>
+      </c>
+      <c r="E10" s="47">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41262</v>
+      </c>
+      <c r="E11" s="47">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="H11" s="37" t="s">
         <v>5</v>
       </c>
@@ -2745,7 +2814,7 @@
       </c>
       <c r="I12" s="38">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2765,7 +2834,7 @@
       </c>
       <c r="I14" s="36">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2996,10 +3065,10 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="66"/>
+      <c r="H1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="67"/>
       <c r="J1" s="41" t="s">
         <v>10</v>
       </c>
@@ -3015,10 +3084,10 @@
       <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="67"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="42">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>4</v>
@@ -3026,10 +3095,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="7"/>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="67"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="42">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>0</v>
@@ -3037,10 +3106,10 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="8"/>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="67"/>
+      <c r="I4" s="68"/>
       <c r="J4" s="42">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>0</v>
@@ -3048,10 +3117,10 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="68"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
         <v>4</v>
@@ -3542,20 +3611,20 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="66"/>
+      <c r="H1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="67"/>
       <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="70"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="4">
         <f t="shared" ref="J2:J7" si="0">SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
@@ -3563,10 +3632,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="67"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3574,10 +3643,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="67"/>
+      <c r="I4" s="68"/>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3585,10 +3654,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="67"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3596,10 +3665,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3607,10 +3676,10 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="76"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3618,10 +3687,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="68"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="10">
         <f>SUM(J2:J7)</f>
         <v>0</v>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="3192" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -860,12 +860,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="74433280"/>
-        <c:axId val="74434816"/>
+        <c:axId val="60492032"/>
+        <c:axId val="60497920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="74433280"/>
+        <c:axId val="60492032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +874,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74434816"/>
+        <c:crossAx val="60497920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -882,7 +882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74434816"/>
+        <c:axId val="60497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +898,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74433280"/>
+        <c:crossAx val="60492032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1020,7 +1020,7 @@
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.5</c:v>
@@ -1039,12 +1039,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="85019264"/>
-        <c:axId val="85021056"/>
+        <c:axId val="60532608"/>
+        <c:axId val="60534144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85019264"/>
+        <c:axId val="60532608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85021056"/>
+        <c:crossAx val="60534144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85021056"/>
+        <c:axId val="60534144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85019264"/>
+        <c:crossAx val="60532608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1447,13 +1447,13 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="56"/>
       <c r="B1" s="58" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
       <c r="D1" s="53"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57"/>
       <c r="B2" s="59"/>
       <c r="C2" s="15" t="s">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60" t="s">
@@ -1497,19 +1497,19 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57"/>
       <c r="B5" s="59"/>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="19">
         <f>Projektmanagement!J7</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" s="30">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1529,18 +1529,18 @@
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="21">
         <f>Projektmanagement!J3</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>57</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>59</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>61</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>67</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>74</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44" t="s">
         <v>76</v>
       </c>
@@ -1838,14 +1838,14 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="42">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!J12,'Testing &amp; Abschluss'!I14)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1885,19 +1885,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="27"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="27"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1980,10 +1980,10 @@
       <c r="I3" s="68"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2039,8 +2039,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41262</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H6" s="66" t="s">
         <v>9</v>
       </c>
@@ -2058,16 +2075,16 @@
       <c r="I7" s="65"/>
       <c r="J7" s="10">
         <f>SUM(J2:J6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2082,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>28</v>
@@ -2092,14 +2109,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="4">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2112,15 +2129,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2134,10 +2151,10 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2:B10 B12:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B1048576 B1:B10">
       <formula1>$H$2:$H$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>$H$13:$H$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -2155,18 +2172,18 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2196,7 +2213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2224,7 +2241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2252,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="H4" s="72" t="s">
         <v>38</v>
       </c>
@@ -2284,13 +2301,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2305,7 +2322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2315,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2335,166 +2352,166 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2527,20 +2544,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="47"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="47"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2570,7 +2587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2598,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2626,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2654,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2682,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2707,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2724,7 +2741,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2741,7 +2758,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2781,7 +2798,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -2807,7 +2824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="38" t="s">
         <v>28</v>
@@ -2817,7 +2834,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="38" t="s">
         <v>6</v>
@@ -2837,166 +2854,166 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3034,16 +3051,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3073,7 +3090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3093,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D3" s="7"/>
       <c r="H3" s="68" t="s">
         <v>45</v>
@@ -3126,13 +3143,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3147,7 +3164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="H11" s="42" t="s">
         <v>28</v>
@@ -3157,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="42" t="s">
         <v>6</v>
@@ -3177,370 +3194,370 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -3580,16 +3597,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="45.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="6" max="6" width="45.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3619,7 +3636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="H2" s="70" t="s">
         <v>47</v>
@@ -3630,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>48</v>
@@ -3641,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>49</v>
@@ -3652,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="68" t="s">
         <v>50</v>
@@ -3663,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="72" t="s">
         <v>51</v>
@@ -3674,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="H7" s="74" t="s">
         <v>52</v>
@@ -3696,10 +3713,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3713,7 +3730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="H13" s="35" t="s">
         <v>28</v>
       </c>
@@ -3722,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="3195" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="103">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -300,6 +300,39 @@
   </si>
   <si>
     <t>verbessert</t>
+  </si>
+  <si>
+    <t>ASP.NET Controlls</t>
+  </si>
+  <si>
+    <t>Kenntnisse über ASP.NET</t>
+  </si>
+  <si>
+    <t>portfolio, masterpage, db</t>
+  </si>
+  <si>
+    <t>Membership Login Controller</t>
+  </si>
+  <si>
+    <t>Erkenntnisse</t>
+  </si>
+  <si>
+    <t>Chart, Portfoliodaten JSDatatables</t>
+  </si>
+  <si>
+    <t>Dynamische Tabelle 1. Chart</t>
+  </si>
+  <si>
+    <t>Masterpage eingerichtet</t>
+  </si>
+  <si>
+    <t>Web Forms, Master Pages, DB Schema</t>
+  </si>
+  <si>
+    <t>Datenbankconnectorklasse implementieren</t>
+  </si>
+  <si>
+    <t>Implementiert</t>
   </si>
 </sst>
 </file>
@@ -773,6 +806,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -860,12 +894,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="60492032"/>
-        <c:axId val="60497920"/>
+        <c:axId val="85373696"/>
+        <c:axId val="85375232"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60492032"/>
+        <c:axId val="85373696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60497920"/>
+        <c:crossAx val="85375232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -882,7 +916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60497920"/>
+        <c:axId val="85375232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +932,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="60492032"/>
+        <c:crossAx val="85373696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -933,6 +967,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1017,13 +1052,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,12 +1074,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="60532608"/>
-        <c:axId val="60534144"/>
+        <c:axId val="92555904"/>
+        <c:axId val="92557696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60532608"/>
+        <c:axId val="92555904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60534144"/>
+        <c:crossAx val="92557696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60534144"/>
+        <c:axId val="92557696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60532608"/>
+        <c:crossAx val="92555904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,17 +1478,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
       <c r="B1" s="58" t="s">
         <v>24</v>
@@ -1464,7 +1499,7 @@
       <c r="D1" s="53"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57"/>
       <c r="B2" s="59"/>
       <c r="C2" s="15" t="s">
@@ -1480,7 +1515,7 @@
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1489,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60" t="s">
@@ -1497,13 +1532,13 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57"/>
       <c r="B5" s="59"/>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1529,7 +1564,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1540,7 +1575,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1551,7 +1586,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1573,13 +1608,13 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
@@ -1588,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>57</v>
       </c>
@@ -1599,18 +1634,18 @@
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="24">
         <f>Software!J3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>59</v>
       </c>
@@ -1632,7 +1667,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
@@ -1647,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>61</v>
       </c>
@@ -1658,7 +1693,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -1669,7 +1704,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1691,7 +1726,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>67</v>
       </c>
@@ -1706,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
@@ -1717,7 +1752,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
@@ -1739,7 +1774,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -1765,7 +1800,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
@@ -1776,7 +1811,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
@@ -1787,7 +1822,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>74</v>
       </c>
@@ -1798,7 +1833,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -1809,7 +1844,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>76</v>
       </c>
@@ -1835,10 +1870,10 @@
       <c r="C35" s="55"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!J11,'Testing &amp; Abschluss'!I13)</f>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
@@ -1855,7 +1890,7 @@
       <c r="C37" s="51"/>
       <c r="D37" s="40">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!J13,'Testing &amp; Abschluss'!I15)</f>
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1885,19 +1920,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="27"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="27"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1927,7 +1962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1955,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +2018,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2011,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2078,13 +2113,13 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2099,7 +2134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>28</v>
@@ -2109,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2129,15 +2164,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2172,18 +2207,18 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2213,7 +2248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2241,7 +2276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2266,10 +2301,10 @@
       <c r="I3" s="73"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H4" s="72" t="s">
         <v>38</v>
       </c>
@@ -2298,16 +2333,33 @@
       <c r="I6" s="69"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="8">
+        <v>41278</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2322,7 +2374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2332,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2349,169 +2401,169 @@
       </c>
       <c r="I14" s="34">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2545,19 +2597,19 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="47"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="47"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2587,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2615,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2643,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2671,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2699,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2724,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2741,7 +2793,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2758,7 +2810,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2798,7 +2850,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -2824,18 +2876,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41270</v>
+      </c>
+      <c r="E12" s="47">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="H12" s="38" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="38">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41271</v>
+      </c>
+      <c r="E13" s="47">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="H13" s="38" t="s">
         <v>6</v>
       </c>
@@ -2845,7 +2931,24 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41274</v>
+      </c>
+      <c r="E14" s="47">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="H14" s="36" t="s">
         <v>29</v>
       </c>
@@ -2854,166 +2957,200 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40912</v>
+      </c>
+      <c r="E15" s="47">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="1">
+        <v>40913</v>
+      </c>
+      <c r="E16" s="47">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3026,7 +3163,7 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A18:A23 A25:A27 A30:A40 A42:A47 A2:A3 A5:A16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A25:A27 A30:A40 A42:A47 A2:A3 A5:A23">
       <formula1>$H$12:$H$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B5:B1048576">
@@ -3051,16 +3188,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3090,7 +3227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3110,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="7"/>
       <c r="H3" s="68" t="s">
         <v>45</v>
@@ -3143,13 +3280,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3164,7 +3301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="H11" s="42" t="s">
         <v>28</v>
@@ -3174,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="42" t="s">
         <v>6</v>
@@ -3194,370 +3331,370 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -3597,16 +3734,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="3"/>
-    <col min="6" max="6" width="45.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="45.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3636,7 +3773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="H2" s="70" t="s">
         <v>47</v>
@@ -3647,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>48</v>
@@ -3658,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>49</v>
@@ -3669,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="H5" s="68" t="s">
         <v>50</v>
@@ -3680,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="H6" s="72" t="s">
         <v>51</v>
@@ -3691,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="H7" s="74" t="s">
         <v>52</v>
@@ -3713,10 +3850,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3730,7 +3867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="35" t="s">
         <v>28</v>
       </c>
@@ -3739,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="3192" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -300,6 +300,24 @@
   </si>
   <si>
     <t>verbessert</t>
+  </si>
+  <si>
+    <t>Simple Funktionen implementiert</t>
+  </si>
+  <si>
+    <t>Funktionen als statische Klasse Implementiert</t>
+  </si>
+  <si>
+    <t>ESignal-Informationen eingeholt</t>
+  </si>
+  <si>
+    <t>Struktur und Daten- und Brokeranbindung realisiert</t>
+  </si>
+  <si>
+    <t>ESignal Kenntnisse erlangt</t>
+  </si>
+  <si>
+    <t>Struktur ohne Testing implementiert</t>
   </si>
 </sst>
 </file>
@@ -860,12 +878,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="60492032"/>
-        <c:axId val="60497920"/>
+        <c:axId val="7289088"/>
+        <c:axId val="7294976"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60492032"/>
+        <c:axId val="7289088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +892,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60497920"/>
+        <c:crossAx val="7294976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -882,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60497920"/>
+        <c:axId val="7294976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +916,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="60492032"/>
+        <c:crossAx val="7289088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1020,7 +1038,7 @@
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.5</c:v>
@@ -1039,12 +1057,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="60532608"/>
-        <c:axId val="60534144"/>
+        <c:axId val="7324032"/>
+        <c:axId val="7325568"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60532608"/>
+        <c:axId val="7324032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60534144"/>
+        <c:crossAx val="7325568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60534144"/>
+        <c:axId val="7325568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60532608"/>
+        <c:crossAx val="7324032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,7 +1498,7 @@
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1579,7 +1597,7 @@
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
@@ -1594,7 +1612,7 @@
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
@@ -1616,7 +1634,7 @@
       </c>
       <c r="B15" s="24">
         <f>Software!J4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
@@ -1845,7 +1863,7 @@
       <c r="C36" s="49"/>
       <c r="D36" s="42">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!J12,'Testing &amp; Abschluss'!I14)</f>
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1885,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2171,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2238,7 +2256,7 @@
       <c r="I2" s="71"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2270,17 +2288,52 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41635</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="H4" s="72" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="73"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="9"/>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="9">
+        <v>41275</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="H5" s="74" t="s">
         <v>39</v>
       </c>
@@ -2298,7 +2351,7 @@
       <c r="I6" s="69"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2339,7 +2392,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2403,19 +2456,19 @@
     <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.3">
@@ -2524,7 +2577,7 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A18:A23 A25:A27 A30:A40 A42:A47 A2:A3 A5:A16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A18:A23 A25:A27 A30:A40 A42:A47 A2:A16">
       <formula1>$H$12:$H$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B23 B49:B1048576 B41:B46 B29:B39 B25:B27 B1:B15">
@@ -2532,6 +2585,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2905,19 +2959,19 @@
     <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.3">
@@ -3047,15 +3101,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" style="3" customWidth="1"/>
     <col min="4" max="5" width="10.88671875" style="3"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.88671875" customWidth="1"/>
@@ -3092,14 +3146,22 @@
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="7">
+        <v>41278</v>
+      </c>
       <c r="E2" s="3">
         <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H2" s="68" t="s">
         <v>44</v>
@@ -3181,7 +3243,7 @@
       </c>
       <c r="I12" s="42">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3191,7 +3253,7 @@
       </c>
       <c r="I13" s="40">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -3312,35 +3374,35 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="20740" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="109">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -333,6 +333,24 @@
   </si>
   <si>
     <t>Implementiert</t>
+  </si>
+  <si>
+    <t>Performance, Charts</t>
+  </si>
+  <si>
+    <t>Portfolio, Kenndaten, DB-Read</t>
+  </si>
+  <si>
+    <t>TimeSeries für Charts, Codepflege</t>
+  </si>
+  <si>
+    <t>Grundlegende Kenndaten zum Portfolio ausgegeben</t>
+  </si>
+  <si>
+    <t>Intraday price chart</t>
+  </si>
+  <si>
+    <t>Intraday(minute)/year(day) chart</t>
   </si>
 </sst>
 </file>
@@ -753,12 +771,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -779,7 +797,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -875,10 +893,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,12 +912,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="85373696"/>
-        <c:axId val="85375232"/>
+        <c:axId val="2049578360"/>
+        <c:axId val="2049585176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85373696"/>
+        <c:axId val="2049578360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +926,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85375232"/>
+        <c:crossAx val="2049585176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -916,7 +934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85375232"/>
+        <c:axId val="2049585176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +950,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85373696"/>
+        <c:crossAx val="2049578360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -946,7 +964,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -955,7 +973,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1052,7 +1070,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.5</c:v>
@@ -1074,12 +1092,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="92555904"/>
-        <c:axId val="92557696"/>
+        <c:axId val="2046913160"/>
+        <c:axId val="2049545800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="92555904"/>
+        <c:axId val="2046913160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92557696"/>
+        <c:crossAx val="2049545800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92557696"/>
+        <c:axId val="2049545800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92555904"/>
+        <c:crossAx val="2046913160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1118,7 +1136,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1478,17 +1496,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="56"/>
       <c r="B1" s="58" t="s">
         <v>24</v>
@@ -1499,7 +1517,7 @@
       <c r="D1" s="53"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="A2" s="57"/>
       <c r="B2" s="59"/>
       <c r="C2" s="15" t="s">
@@ -1509,7 +1527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -1524,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="53"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60" t="s">
@@ -1532,13 +1550,13 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="57"/>
       <c r="B5" s="59"/>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1553,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1564,7 +1582,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1575,7 +1593,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1586,7 +1604,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1615,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1608,7 +1626,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
@@ -1623,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="43" t="s">
         <v>57</v>
       </c>
@@ -1634,7 +1652,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
@@ -1645,7 +1663,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="43" t="s">
         <v>59</v>
       </c>
@@ -1656,7 +1674,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="A16" s="43" t="s">
         <v>60</v>
       </c>
@@ -1667,7 +1685,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
@@ -1682,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="43" t="s">
         <v>61</v>
       </c>
@@ -1693,7 +1711,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -1704,7 +1722,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1715,7 +1733,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="44" t="s">
         <v>64</v>
       </c>
@@ -1726,7 +1744,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="45" t="s">
         <v>67</v>
       </c>
@@ -1741,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
@@ -1752,7 +1770,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
@@ -1763,7 +1781,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1">
       <c r="A25" s="43" t="s">
         <v>70</v>
       </c>
@@ -1774,7 +1792,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -1800,7 +1818,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
@@ -1811,7 +1829,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
@@ -1822,7 +1840,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="43" t="s">
         <v>74</v>
       </c>
@@ -1833,7 +1851,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -1844,7 +1862,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1">
       <c r="A32" s="44" t="s">
         <v>76</v>
       </c>
@@ -1855,25 +1873,25 @@
       <c r="C32" s="46"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="15" thickBot="1"/>
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="41"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="15" customHeight="1">
       <c r="B35" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="55"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!J11,'Testing &amp; Abschluss'!I13)</f>
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
@@ -1883,7 +1901,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="15" thickBot="1">
       <c r="B37" s="50" t="s">
         <v>31</v>
       </c>
@@ -1893,7 +1911,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -1924,18 +1942,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="27"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="27"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1962,7 +1980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2018,7 +2036,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2046,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2074,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="D7" s="1"/>
       <c r="H7" s="64" t="s">
         <v>16</v>
@@ -2113,19 +2131,19 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2134,7 +2152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>28</v>
@@ -2144,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2154,7 +2172,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>29</v>
@@ -2164,15 +2182,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2210,18 +2228,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2248,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2276,7 +2294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2304,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="H4" s="72" t="s">
         <v>38</v>
       </c>
@@ -2314,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="D5" s="9"/>
       <c r="H5" s="74" t="s">
         <v>39</v>
@@ -2325,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="D6" s="1"/>
       <c r="H6" s="64" t="s">
         <v>16</v>
@@ -2336,7 +2354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2356,16 +2374,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -2374,7 +2392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2384,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2394,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>29</v>
@@ -2404,166 +2422,166 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2596,23 +2614,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="47"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="47"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2639,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2667,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2695,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2723,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2751,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2776,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2793,7 +2811,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2810,7 +2828,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2830,7 +2848,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2850,7 +2868,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -2876,7 +2894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2900,10 +2918,10 @@
       </c>
       <c r="I12" s="38">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2930,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2957,7 +2975,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -2977,7 +2995,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2997,160 +3015,211 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41283</v>
+      </c>
+      <c r="E17" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41284</v>
+      </c>
+      <c r="E18" s="47">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41290</v>
+      </c>
+      <c r="E19" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3171,7 +3240,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3188,19 +3256,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3227,7 +3295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3247,7 +3315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="D3" s="7"/>
       <c r="H3" s="68" t="s">
         <v>45</v>
@@ -3258,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="D4" s="8"/>
       <c r="H4" s="68" t="s">
         <v>46</v>
@@ -3269,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="D5" s="1"/>
       <c r="H5" s="64" t="s">
         <v>16</v>
@@ -3280,19 +3348,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="D10" s="1"/>
       <c r="H10" s="41" t="s">
         <v>5</v>
@@ -3301,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="D11" s="1"/>
       <c r="H11" s="42" t="s">
         <v>28</v>
@@ -3311,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="D12" s="1"/>
       <c r="H12" s="42" t="s">
         <v>6</v>
@@ -3321,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="D13" s="1"/>
       <c r="H13" s="40" t="s">
         <v>29</v>
@@ -3331,370 +3399,370 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" s="3" customFormat="1">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" s="3" customFormat="1">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" s="3" customFormat="1">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" s="3" customFormat="1">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" s="3" customFormat="1">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" s="3" customFormat="1">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" s="3" customFormat="1">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" s="3" customFormat="1">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" s="3" customFormat="1">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" s="3" customFormat="1">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" s="3" customFormat="1">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" s="3" customFormat="1">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" s="3" customFormat="1">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" s="3" customFormat="1">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" s="3" customFormat="1">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" s="3" customFormat="1">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" s="3" customFormat="1">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" s="3" customFormat="1">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" s="3" customFormat="1">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" s="3" customFormat="1">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" s="3" customFormat="1">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" s="3" customFormat="1">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" s="3" customFormat="1">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" s="3" customFormat="1">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" s="3" customFormat="1">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" s="3" customFormat="1">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" s="3" customFormat="1">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" s="3" customFormat="1">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" s="3" customFormat="1">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10" s="3" customFormat="1">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10" s="3" customFormat="1">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:10" s="3" customFormat="1">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10" s="3" customFormat="1">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10" s="3" customFormat="1">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10" s="3" customFormat="1">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10" s="3" customFormat="1">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10" s="3" customFormat="1">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10" s="3" customFormat="1">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10" s="3" customFormat="1">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:10" s="3" customFormat="1">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10" s="3" customFormat="1">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:10" s="3" customFormat="1">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:10" s="3" customFormat="1">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:10" s="3" customFormat="1">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:10" s="3" customFormat="1">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" s="3" customFormat="1">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:10" s="3" customFormat="1">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:10" s="3" customFormat="1">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:10" s="3" customFormat="1">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:10" s="3" customFormat="1">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:10" s="3" customFormat="1">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -3734,19 +3802,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="45.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="45.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3773,7 +3841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="D2" s="1"/>
       <c r="H2" s="70" t="s">
         <v>47</v>
@@ -3784,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>48</v>
@@ -3795,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>49</v>
@@ -3806,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="D5" s="1"/>
       <c r="H5" s="68" t="s">
         <v>50</v>
@@ -3817,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="D6" s="1"/>
       <c r="H6" s="72" t="s">
         <v>51</v>
@@ -3828,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="D7" s="1"/>
       <c r="H7" s="74" t="s">
         <v>52</v>
@@ -3839,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="D8" s="1"/>
       <c r="H8" s="64" t="s">
         <v>16</v>
@@ -3850,16 +3918,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -3867,7 +3935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="H13" s="35" t="s">
         <v>28</v>
       </c>
@@ -3876,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -3885,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="H15" s="34" t="s">
         <v>29</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="20740" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="3195" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="115">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -351,6 +351,24 @@
   </si>
   <si>
     <t>Intraday(minute)/year(day) chart</t>
+  </si>
+  <si>
+    <t>Connector Klasse implementieren</t>
+  </si>
+  <si>
+    <t>implementiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in die vorhandene Logik eingepflegt </t>
+  </si>
+  <si>
+    <t>Datenbankconnectorklasse einpflegen</t>
+  </si>
+  <si>
+    <t>Testdateninsertapplikation schreiben</t>
+  </si>
+  <si>
+    <t>fertiggestellt</t>
   </si>
 </sst>
 </file>
@@ -771,12 +789,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,7 +815,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -893,10 +911,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,12 +930,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2049578360"/>
-        <c:axId val="2049585176"/>
+        <c:axId val="172455040"/>
+        <c:axId val="172456576"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2049578360"/>
+        <c:axId val="172455040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +944,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2049585176"/>
+        <c:crossAx val="172456576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -934,7 +952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2049585176"/>
+        <c:axId val="172456576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +968,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2049578360"/>
+        <c:crossAx val="172455040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -964,7 +982,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -973,7 +991,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1076,7 +1094,7 @@
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,12 +1110,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2046913160"/>
-        <c:axId val="2049545800"/>
+        <c:axId val="172471040"/>
+        <c:axId val="172472576"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2046913160"/>
+        <c:axId val="172471040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2049545800"/>
+        <c:crossAx val="172472576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1114,7 +1132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2049545800"/>
+        <c:axId val="172472576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046913160"/>
+        <c:crossAx val="172471040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1136,7 +1154,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1496,17 +1514,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
       <c r="B1" s="58" t="s">
         <v>24</v>
@@ -1517,7 +1535,7 @@
       <c r="D1" s="53"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57"/>
       <c r="B2" s="59"/>
       <c r="C2" s="15" t="s">
@@ -1527,13 +1545,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1542,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60" t="s">
@@ -1550,13 +1568,13 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57"/>
       <c r="B5" s="59"/>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1582,7 +1600,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1611,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1622,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1633,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1626,13 +1644,13 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
@@ -1641,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>57</v>
       </c>
@@ -1652,18 +1670,18 @@
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="24">
         <f>Software!J3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>59</v>
       </c>
@@ -1674,7 +1692,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>60</v>
       </c>
@@ -1685,7 +1703,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
@@ -1700,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>61</v>
       </c>
@@ -1711,7 +1729,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -1722,7 +1740,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1733,7 +1751,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>64</v>
       </c>
@@ -1744,7 +1762,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>67</v>
       </c>
@@ -1759,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
@@ -1770,7 +1788,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
@@ -1781,7 +1799,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>70</v>
       </c>
@@ -1792,7 +1810,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
@@ -1807,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -1818,7 +1836,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
@@ -1829,7 +1847,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
@@ -1840,7 +1858,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>74</v>
       </c>
@@ -1851,7 +1869,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -1862,7 +1880,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>76</v>
       </c>
@@ -1873,15 +1891,15 @@
       <c r="C32" s="46"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1"/>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="41"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1">
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="54" t="s">
         <v>30</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
@@ -1901,17 +1919,17 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1">
+    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="51"/>
       <c r="D37" s="40">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!J13,'Testing &amp; Abschluss'!I15)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -1942,18 +1960,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="27"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="27"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1980,7 +1998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2008,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2054,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2120,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="H7" s="64" t="s">
         <v>16</v>
@@ -2131,19 +2149,19 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2152,7 +2170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>28</v>
@@ -2162,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2172,7 +2190,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>29</v>
@@ -2182,15 +2200,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2228,18 +2246,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2266,7 +2284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2294,7 +2312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2319,10 +2337,10 @@
       <c r="I3" s="73"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H4" s="72" t="s">
         <v>38</v>
       </c>
@@ -2332,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="9"/>
       <c r="H5" s="74" t="s">
         <v>39</v>
@@ -2343,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="64" t="s">
         <v>16</v>
@@ -2351,10 +2369,10 @@
       <c r="I6" s="69"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2374,16 +2392,33 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41278</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -2392,7 +2427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2402,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2412,176 +2447,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="34">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2614,23 +2649,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="47"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="47"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2657,7 +2692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2685,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2713,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2741,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2769,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2794,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2811,7 +2846,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2828,7 +2863,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2848,7 +2883,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2868,7 +2903,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -2894,7 +2929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2921,7 +2956,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2948,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2972,10 +3007,10 @@
       </c>
       <c r="I14" s="36">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -2995,7 +3030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3015,7 +3050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3035,7 +3070,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3055,171 +3090,188 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41284</v>
+      </c>
+      <c r="E19" s="47">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>41290</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E20" s="47">
         <v>1.5</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3240,6 +3292,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3253,22 +3306,22 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3295,16 +3348,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="C2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="7">
+        <v>41278</v>
+      </c>
       <c r="E2" s="3">
         <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="H2" s="68" t="s">
         <v>44</v>
@@ -3315,7 +3376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="7"/>
       <c r="H3" s="68" t="s">
         <v>45</v>
@@ -3326,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="8"/>
       <c r="H4" s="68" t="s">
         <v>46</v>
@@ -3337,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="64" t="s">
         <v>16</v>
@@ -3348,19 +3409,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="H10" s="41" t="s">
         <v>5</v>
@@ -3369,7 +3430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="H11" s="42" t="s">
         <v>28</v>
@@ -3379,390 +3440,390 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="42" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="42">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="40" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="40">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1">
+    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1">
+    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1">
+    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1">
+    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1">
+    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1">
+    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1">
+    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1">
+    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1">
+    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1">
+    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1">
+    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1">
+    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1">
+    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1">
+    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1">
+    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1">
+    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -3802,19 +3863,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="45.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="45.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3841,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="H2" s="70" t="s">
         <v>47</v>
@@ -3852,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>48</v>
@@ -3863,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>49</v>
@@ -3874,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="H5" s="68" t="s">
         <v>50</v>
@@ -3885,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="H6" s="72" t="s">
         <v>51</v>
@@ -3896,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="H7" s="74" t="s">
         <v>52</v>
@@ -3907,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="H8" s="64" t="s">
         <v>16</v>
@@ -3918,16 +3979,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -3935,7 +3996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="35" t="s">
         <v>28</v>
       </c>
@@ -3944,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -3953,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="34" t="s">
         <v>29</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="20740" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="121">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -369,6 +369,24 @@
   </si>
   <si>
     <t>fertiggestellt</t>
+  </si>
+  <si>
+    <t>Suchfunktion</t>
+  </si>
+  <si>
+    <t>Suchfunktion Serverseitig</t>
+  </si>
+  <si>
+    <t>Löschen von Portfolio-Elementen; DB-Debugging</t>
+  </si>
+  <si>
+    <t>Löschfunktion</t>
+  </si>
+  <si>
+    <t>Portfolio-Elemente hinzufügen; DB-Zugriffs-Bugs beheben</t>
+  </si>
+  <si>
+    <t>Interaktives Hinzufügen</t>
   </si>
 </sst>
 </file>
@@ -641,8 +659,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -788,13 +808,15 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+  <cellStyles count="9">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -815,7 +837,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -911,10 +933,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,12 +952,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="172455040"/>
-        <c:axId val="172456576"/>
+        <c:axId val="2074863416"/>
+        <c:axId val="2074859400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="172455040"/>
+        <c:axId val="2074863416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +966,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172456576"/>
+        <c:crossAx val="2074859400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -952,7 +974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172456576"/>
+        <c:axId val="2074859400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,7 +990,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="172455040"/>
+        <c:crossAx val="2074863416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -982,7 +1004,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -991,7 +1013,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1088,7 +1110,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50.5</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.5</c:v>
@@ -1110,12 +1132,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="172471040"/>
-        <c:axId val="172472576"/>
+        <c:axId val="2074936392"/>
+        <c:axId val="2074939368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="172471040"/>
+        <c:axId val="2074936392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172472576"/>
+        <c:crossAx val="2074939368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1132,7 +1154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172472576"/>
+        <c:axId val="2074939368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172471040"/>
+        <c:crossAx val="2074936392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1154,7 +1176,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1514,17 +1536,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="56"/>
       <c r="B1" s="58" t="s">
         <v>24</v>
@@ -1535,7 +1557,7 @@
       <c r="D1" s="53"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="A2" s="57"/>
       <c r="B2" s="59"/>
       <c r="C2" s="15" t="s">
@@ -1545,7 +1567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -1560,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="53"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60" t="s">
@@ -1568,13 +1590,13 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="57"/>
       <c r="B5" s="59"/>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1600,7 +1622,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1611,7 +1633,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1622,7 +1644,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1655,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1644,7 +1666,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
@@ -1659,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="43" t="s">
         <v>57</v>
       </c>
@@ -1670,7 +1692,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
@@ -1681,7 +1703,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="43" t="s">
         <v>59</v>
       </c>
@@ -1692,7 +1714,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="A16" s="43" t="s">
         <v>60</v>
       </c>
@@ -1703,7 +1725,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
@@ -1718,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="43" t="s">
         <v>61</v>
       </c>
@@ -1729,7 +1751,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -1740,7 +1762,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1751,7 +1773,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="44" t="s">
         <v>64</v>
       </c>
@@ -1762,7 +1784,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="45" t="s">
         <v>67</v>
       </c>
@@ -1777,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
@@ -1788,7 +1810,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
@@ -1799,7 +1821,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1">
       <c r="A25" s="43" t="s">
         <v>70</v>
       </c>
@@ -1810,7 +1832,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -1836,7 +1858,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
@@ -1847,7 +1869,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
@@ -1858,7 +1880,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="43" t="s">
         <v>74</v>
       </c>
@@ -1869,7 +1891,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -1880,7 +1902,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1">
       <c r="A32" s="44" t="s">
         <v>76</v>
       </c>
@@ -1891,25 +1913,25 @@
       <c r="C32" s="46"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="15" thickBot="1"/>
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="41"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="15" customHeight="1">
       <c r="B35" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="55"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!J11,'Testing &amp; Abschluss'!I13)</f>
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
@@ -1919,7 +1941,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="15" thickBot="1">
       <c r="B37" s="50" t="s">
         <v>31</v>
       </c>
@@ -1929,7 +1951,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -1960,18 +1982,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="27"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="27"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1998,7 +2020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +2076,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="D7" s="1"/>
       <c r="H7" s="64" t="s">
         <v>16</v>
@@ -2149,19 +2171,19 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2170,7 +2192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>28</v>
@@ -2180,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2190,7 +2212,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>29</v>
@@ -2200,15 +2222,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2246,18 +2268,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2284,7 +2306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2312,7 +2334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2340,7 +2362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="H4" s="72" t="s">
         <v>38</v>
       </c>
@@ -2350,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="D5" s="9"/>
       <c r="H5" s="74" t="s">
         <v>39</v>
@@ -2361,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="D6" s="1"/>
       <c r="H6" s="64" t="s">
         <v>16</v>
@@ -2372,7 +2394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2392,7 +2414,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2412,13 +2434,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -2427,7 +2449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2437,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2447,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>29</v>
@@ -2457,166 +2479,166 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2649,23 +2671,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="47"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="47"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2692,7 +2714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2720,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2748,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2776,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2804,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2829,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2846,7 +2868,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2863,7 +2885,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2883,7 +2905,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2903,7 +2925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +2951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2953,10 +2975,10 @@
       </c>
       <c r="I12" s="38">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2983,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -3010,7 +3032,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3030,7 +3052,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3050,7 +3072,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3070,7 +3092,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3090,7 +3112,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3110,7 +3132,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3130,148 +3152,207 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41298</v>
+      </c>
+      <c r="E21" s="47">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41301</v>
+      </c>
+      <c r="E22" s="47">
+        <v>6.5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41302</v>
+      </c>
+      <c r="E23" s="47">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3284,7 +3365,7 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A25:A27 A30:A40 A42:A47 A2:A3 A5:A23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A30:A40 A42:A47 A2:A3 A5:A27">
       <formula1>$H$12:$H$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B5:B1048576">
@@ -3292,7 +3373,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3309,19 +3390,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3348,7 +3429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -3376,7 +3457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="D3" s="7"/>
       <c r="H3" s="68" t="s">
         <v>45</v>
@@ -3387,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="D4" s="8"/>
       <c r="H4" s="68" t="s">
         <v>46</v>
@@ -3398,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="D5" s="1"/>
       <c r="H5" s="64" t="s">
         <v>16</v>
@@ -3409,19 +3490,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="D10" s="1"/>
       <c r="H10" s="41" t="s">
         <v>5</v>
@@ -3430,7 +3511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="D11" s="1"/>
       <c r="H11" s="42" t="s">
         <v>28</v>
@@ -3440,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="D12" s="1"/>
       <c r="H12" s="42" t="s">
         <v>6</v>
@@ -3450,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="D13" s="1"/>
       <c r="H13" s="40" t="s">
         <v>29</v>
@@ -3460,370 +3541,370 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" s="3" customFormat="1">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" s="3" customFormat="1">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" s="3" customFormat="1">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" s="3" customFormat="1">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" s="3" customFormat="1">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" s="3" customFormat="1">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" s="3" customFormat="1">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" s="3" customFormat="1">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" s="3" customFormat="1">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" s="3" customFormat="1">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" s="3" customFormat="1">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" s="3" customFormat="1">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" s="3" customFormat="1">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" s="3" customFormat="1">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" s="3" customFormat="1">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" s="3" customFormat="1">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" s="3" customFormat="1">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" s="3" customFormat="1">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" s="3" customFormat="1">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" s="3" customFormat="1">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" s="3" customFormat="1">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" s="3" customFormat="1">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" s="3" customFormat="1">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" s="3" customFormat="1">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" s="3" customFormat="1">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" s="3" customFormat="1">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" s="3" customFormat="1">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" s="3" customFormat="1">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" s="3" customFormat="1">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10" s="3" customFormat="1">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10" s="3" customFormat="1">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:10" s="3" customFormat="1">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10" s="3" customFormat="1">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10" s="3" customFormat="1">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10" s="3" customFormat="1">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10" s="3" customFormat="1">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10" s="3" customFormat="1">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10" s="3" customFormat="1">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10" s="3" customFormat="1">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:10" s="3" customFormat="1">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10" s="3" customFormat="1">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:10" s="3" customFormat="1">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:10" s="3" customFormat="1">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:10" s="3" customFormat="1">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:10" s="3" customFormat="1">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" s="3" customFormat="1">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:10" s="3" customFormat="1">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:10" s="3" customFormat="1">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:10" s="3" customFormat="1">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:10" s="3" customFormat="1">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:10" s="3" customFormat="1">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -3863,19 +3944,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="45.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="45.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3902,7 +3983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="D2" s="1"/>
       <c r="H2" s="70" t="s">
         <v>47</v>
@@ -3913,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>48</v>
@@ -3924,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>49</v>
@@ -3935,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="D5" s="1"/>
       <c r="H5" s="68" t="s">
         <v>50</v>
@@ -3946,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="D6" s="1"/>
       <c r="H6" s="72" t="s">
         <v>51</v>
@@ -3957,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="D7" s="1"/>
       <c r="H7" s="74" t="s">
         <v>52</v>
@@ -3968,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="D8" s="1"/>
       <c r="H8" s="64" t="s">
         <v>16</v>
@@ -3979,16 +4060,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -3996,7 +4077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="H13" s="35" t="s">
         <v>28</v>
       </c>
@@ -4005,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -4014,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="H15" s="34" t="s">
         <v>29</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="20740" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="3204" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="127">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -387,6 +387,24 @@
   </si>
   <si>
     <t>Interaktives Hinzufügen</t>
+  </si>
+  <si>
+    <t>Aufbau der Grundstruktur der Software</t>
+  </si>
+  <si>
+    <t>Grundstruktur fertiggestellt</t>
+  </si>
+  <si>
+    <t>Broker-Schnittstelle 50%</t>
+  </si>
+  <si>
+    <t>Daten-Schnittstellen-Prototyp implementiert</t>
+  </si>
+  <si>
+    <t>Kauf-/Verkaufschnittstelle 50%</t>
+  </si>
+  <si>
+    <t>Kauf-/Verkaufschnittstellen-Prototyp implementiert</t>
   </si>
 </sst>
 </file>
@@ -809,14 +827,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -837,7 +855,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -933,10 +951,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,12 +970,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2074863416"/>
-        <c:axId val="2074859400"/>
+        <c:axId val="34432896"/>
+        <c:axId val="34434432"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2074863416"/>
+        <c:axId val="34432896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +984,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074859400"/>
+        <c:crossAx val="34434432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074859400"/>
+        <c:axId val="34434432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +1008,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2074863416"/>
+        <c:crossAx val="34432896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1004,7 +1022,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1013,7 +1031,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1081,7 +1099,6 @@
                 <a:schemeClr val="tx2">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
-                  <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
@@ -1110,10 +1127,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23.5</c:v>
@@ -1132,12 +1149,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2074936392"/>
-        <c:axId val="2074939368"/>
+        <c:axId val="34467840"/>
+        <c:axId val="34469376"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2074936392"/>
+        <c:axId val="34467840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074939368"/>
+        <c:crossAx val="34469376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1154,7 +1171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074939368"/>
+        <c:axId val="34469376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074936392"/>
+        <c:crossAx val="34467840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1176,7 +1193,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1536,17 +1553,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="56"/>
       <c r="B1" s="58" t="s">
         <v>24</v>
@@ -1557,7 +1574,7 @@
       <c r="D1" s="53"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57"/>
       <c r="B2" s="59"/>
       <c r="C2" s="15" t="s">
@@ -1567,13 +1584,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>21.5</v>
+        <v>30.5</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1582,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60" t="s">
@@ -1590,13 +1607,13 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57"/>
       <c r="B5" s="59"/>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1611,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1622,7 +1639,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1633,7 +1650,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1644,7 +1661,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1655,7 +1672,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1666,13 +1683,13 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
@@ -1681,18 +1698,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
@@ -1703,18 +1720,18 @@
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="24">
         <f>Software!J4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
         <v>60</v>
       </c>
@@ -1725,7 +1742,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
@@ -1740,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>61</v>
       </c>
@@ -1751,7 +1768,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -1762,7 +1779,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1773,7 +1790,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
         <v>64</v>
       </c>
@@ -1784,7 +1801,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>67</v>
       </c>
@@ -1799,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
@@ -1810,7 +1827,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
@@ -1821,7 +1838,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
         <v>70</v>
       </c>
@@ -1832,7 +1849,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
@@ -1847,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -1858,7 +1875,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
@@ -1869,7 +1886,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
@@ -1880,7 +1897,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>74</v>
       </c>
@@ -1891,7 +1908,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -1902,7 +1919,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44" t="s">
         <v>76</v>
       </c>
@@ -1913,15 +1930,15 @@
       <c r="C32" s="46"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1"/>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="41"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1">
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="54" t="s">
         <v>30</v>
       </c>
@@ -1931,17 +1948,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="42">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!J12,'Testing &amp; Abschluss'!I14)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="50" t="s">
         <v>31</v>
       </c>
@@ -1951,7 +1968,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -1982,18 +1999,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="27"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3"/>
+    <col min="5" max="5" width="10.77734375" style="27"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -2020,7 +2037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2048,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2076,7 +2093,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2132,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2160,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="H7" s="64" t="s">
         <v>16</v>
@@ -2171,19 +2188,19 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2192,7 +2209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>28</v>
@@ -2202,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2212,7 +2229,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>29</v>
@@ -2222,15 +2239,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2265,21 +2282,21 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" style="3"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2306,7 +2323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2331,10 +2348,10 @@
       <c r="I2" s="71"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2362,18 +2379,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="9">
+        <v>41269</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H4" s="72" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="73"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="D5" s="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="9">
+        <v>41271</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="H5" s="74" t="s">
         <v>39</v>
       </c>
@@ -2383,18 +2435,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41276</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="H6" s="64" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="69"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2414,7 +2483,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2434,13 +2503,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -2449,7 +2518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2459,17 +2528,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>29</v>
@@ -2479,166 +2548,166 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2651,7 +2720,7 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A18:A23 A25:A27 A30:A40 A42:A47 A2:A3 A5:A16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A18:A23 A25:A27 A30:A40 A42:A47 A2:A16">
       <formula1>$H$12:$H$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B23 B49:B1048576 B41:B46 B29:B39 B25:B27 B1:B15">
@@ -2671,23 +2740,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="47"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3"/>
+    <col min="5" max="5" width="10.77734375" style="47"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2714,7 +2783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2742,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2770,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2798,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2826,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2851,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2868,7 +2937,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2885,7 +2954,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2905,7 +2974,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2925,7 +2994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -2951,7 +3020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2978,7 +3047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -3005,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -3032,7 +3101,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3052,7 +3121,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3072,7 +3141,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3092,7 +3161,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3112,7 +3181,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3132,7 +3201,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3152,7 +3221,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3172,7 +3241,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3192,7 +3261,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3212,7 +3281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3223,136 +3292,136 @@
         <v>41303</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3387,22 +3456,22 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="47.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" style="3"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3429,7 +3498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -3457,7 +3526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="7"/>
       <c r="H3" s="68" t="s">
         <v>45</v>
@@ -3468,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="8"/>
       <c r="H4" s="68" t="s">
         <v>46</v>
@@ -3479,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
       <c r="H5" s="64" t="s">
         <v>16</v>
@@ -3490,19 +3559,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="H10" s="41" t="s">
         <v>5</v>
@@ -3511,7 +3580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="H11" s="42" t="s">
         <v>28</v>
@@ -3521,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="42" t="s">
         <v>6</v>
@@ -3531,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
       <c r="H13" s="40" t="s">
         <v>29</v>
@@ -3541,370 +3610,370 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1">
+    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1">
+    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1">
+    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1">
+    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1">
+    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1">
+    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1">
+    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1">
+    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1">
+    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1">
+    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1">
+    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1">
+    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1">
+    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1">
+    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1">
+    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1">
+    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -3944,19 +4013,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
     <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="45.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" style="3"/>
+    <col min="6" max="6" width="45.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3983,7 +4052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="H2" s="70" t="s">
         <v>47</v>
@@ -3994,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>48</v>
@@ -4005,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>49</v>
@@ -4016,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="68" t="s">
         <v>50</v>
@@ -4027,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="72" t="s">
         <v>51</v>
@@ -4038,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="H7" s="74" t="s">
         <v>52</v>
@@ -4049,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="1"/>
       <c r="H8" s="64" t="s">
         <v>16</v>
@@ -4060,16 +4129,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -4077,7 +4146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H13" s="35" t="s">
         <v>28</v>
       </c>
@@ -4086,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -4095,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H15" s="34" t="s">
         <v>29</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="3204" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="129">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>Kauf-/Verkaufschnittstellen-Prototyp implementiert</t>
+  </si>
+  <si>
+    <t>Seitenstruktur verändert &amp; Suche</t>
+  </si>
+  <si>
+    <t>Aktualisierte Seitenstruktur &amp; Jquery-Suche</t>
   </si>
 </sst>
 </file>
@@ -970,12 +976,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="34432896"/>
-        <c:axId val="34434432"/>
+        <c:axId val="39081856"/>
+        <c:axId val="39083392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="34432896"/>
+        <c:axId val="39081856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +990,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34434432"/>
+        <c:crossAx val="39083392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -992,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34434432"/>
+        <c:axId val="39083392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1014,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="34432896"/>
+        <c:crossAx val="39081856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1127,7 +1133,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.5</c:v>
@@ -1149,12 +1155,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="34467840"/>
-        <c:axId val="34469376"/>
+        <c:axId val="39116800"/>
+        <c:axId val="39118336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="34467840"/>
+        <c:axId val="39116800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34469376"/>
+        <c:crossAx val="39118336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34469376"/>
+        <c:axId val="39118336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34467840"/>
+        <c:crossAx val="39116800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -1945,7 +1951,7 @@
       <c r="C35" s="55"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!J11,'Testing &amp; Abschluss'!I13)</f>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -2740,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3044,7 +3050,7 @@
       </c>
       <c r="I12" s="38">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3288,8 +3294,17 @@
       <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="D24" s="1">
         <v>41303</v>
+      </c>
+      <c r="E24" s="47">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="3204" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="133">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -411,6 +411,18 @@
   </si>
   <si>
     <t>Aktualisierte Seitenstruktur &amp; Jquery-Suche</t>
+  </si>
+  <si>
+    <t>Worker-Thread Prototyp</t>
+  </si>
+  <si>
+    <t>WCF-Prototyp implementiert</t>
+  </si>
+  <si>
+    <t>WCF-Prototyp</t>
+  </si>
+  <si>
+    <t>Worker-Thread Prototyp implementiert</t>
   </si>
 </sst>
 </file>
@@ -976,12 +988,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="39081856"/>
-        <c:axId val="39083392"/>
+        <c:axId val="38094720"/>
+        <c:axId val="38096256"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="39081856"/>
+        <c:axId val="38094720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +1002,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39083392"/>
+        <c:crossAx val="38096256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -998,7 +1010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39083392"/>
+        <c:axId val="38096256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1026,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39081856"/>
+        <c:crossAx val="38094720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1139,7 +1151,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.5</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,12 +1167,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="39116800"/>
-        <c:axId val="39118336"/>
+        <c:axId val="38133760"/>
+        <c:axId val="38135296"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="39116800"/>
+        <c:axId val="38133760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,7 +1181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39118336"/>
+        <c:crossAx val="38135296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1177,7 +1189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39118336"/>
+        <c:axId val="38135296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39116800"/>
+        <c:crossAx val="38133760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1559,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,7 +1608,7 @@
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1695,7 +1707,7 @@
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
@@ -1710,7 +1722,7 @@
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
@@ -1813,7 +1825,7 @@
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C22" s="30">
         <v>1</v>
@@ -1850,7 +1862,7 @@
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
@@ -1971,7 +1983,7 @@
       <c r="C37" s="51"/>
       <c r="D37" s="40">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!J13,'Testing &amp; Abschluss'!I15)</f>
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2288,7 +2300,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2354,7 +2366,7 @@
       <c r="I2" s="71"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2466,7 +2478,7 @@
       <c r="I6" s="69"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2510,7 +2522,24 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="7"/>
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="7">
+        <v>41318</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
@@ -2551,7 +2580,7 @@
       </c>
       <c r="I14" s="34">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2746,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3471,7 +3500,7 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3542,7 +3571,24 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="7"/>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="7">
+        <v>41318</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="H3" s="68" t="s">
         <v>45</v>
       </c>
@@ -3560,7 +3606,7 @@
       <c r="I4" s="68"/>
       <c r="J4" s="42">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3571,7 +3617,7 @@
       <c r="I5" s="69"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3612,7 +3658,7 @@
       </c>
       <c r="I12" s="42">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="3210" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>Worker-Thread Prototyp implementiert</t>
+  </si>
+  <si>
+    <t>WCF-Settings implementiert</t>
+  </si>
+  <si>
+    <t>Alle Settings implementiert</t>
   </si>
 </sst>
 </file>
@@ -988,12 +994,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="38094720"/>
-        <c:axId val="38096256"/>
+        <c:axId val="152102400"/>
+        <c:axId val="152103936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38094720"/>
+        <c:axId val="152102400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1008,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38096256"/>
+        <c:crossAx val="152103936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1010,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38096256"/>
+        <c:axId val="152103936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1032,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38094720"/>
+        <c:crossAx val="152102400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1112,14 +1118,6 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1167,12 +1165,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="38133760"/>
-        <c:axId val="38135296"/>
+        <c:axId val="152663168"/>
+        <c:axId val="152664704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38133760"/>
+        <c:axId val="152663168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38135296"/>
+        <c:crossAx val="152664704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1189,7 +1187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38135296"/>
+        <c:axId val="152664704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38133760"/>
+        <c:crossAx val="152663168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1571,17 +1569,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
       <c r="B1" s="58" t="s">
         <v>24</v>
@@ -1592,7 +1590,7 @@
       <c r="D1" s="53"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57"/>
       <c r="B2" s="59"/>
       <c r="C2" s="15" t="s">
@@ -1602,7 +1600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60" t="s">
@@ -1625,13 +1623,13 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57"/>
       <c r="B5" s="59"/>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1657,7 +1655,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1668,7 +1666,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1677,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1688,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1701,7 +1699,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
@@ -1716,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>57</v>
       </c>
@@ -1727,7 +1725,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
@@ -1738,7 +1736,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>59</v>
       </c>
@@ -1749,7 +1747,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
         <v>60</v>
       </c>
@@ -1760,7 +1758,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>61</v>
       </c>
@@ -1786,7 +1784,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -1797,7 +1795,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1808,7 +1806,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
         <v>64</v>
       </c>
@@ -1819,13 +1817,13 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22" s="30">
         <v>1</v>
@@ -1834,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
@@ -1845,7 +1843,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
@@ -1856,18 +1854,18 @@
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
@@ -1882,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -1893,7 +1891,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
@@ -1904,7 +1902,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
@@ -1915,7 +1913,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>74</v>
       </c>
@@ -1926,7 +1924,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -1937,7 +1935,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>76</v>
       </c>
@@ -1948,15 +1946,15 @@
       <c r="C32" s="46"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="41"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="54" t="s">
         <v>30</v>
       </c>
@@ -1966,7 +1964,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
@@ -1976,7 +1974,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="50" t="s">
         <v>31</v>
       </c>
@@ -1986,7 +1984,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -2017,18 +2015,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="3"/>
-    <col min="5" max="5" width="10.77734375" style="27"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3"/>
+    <col min="5" max="5" width="10.7109375" style="27"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2111,7 +2109,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +2137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="H7" s="64" t="s">
         <v>16</v>
@@ -2206,19 +2204,19 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2227,7 +2225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>28</v>
@@ -2237,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2247,7 +2245,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>29</v>
@@ -2257,15 +2255,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2299,22 +2297,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.77734375" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2369,7 +2367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2397,7 +2395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2453,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2481,7 +2479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2501,7 +2499,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2521,7 +2519,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2541,10 +2539,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -2553,7 +2551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2563,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2573,7 +2571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>29</v>
@@ -2583,166 +2581,166 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2779,19 +2777,19 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="3"/>
-    <col min="5" max="5" width="10.77734375" style="47"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3"/>
+    <col min="5" max="5" width="10.7109375" style="47"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2818,7 +2816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2846,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2874,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2902,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2930,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2955,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2989,7 +2987,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -3009,7 +3007,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3029,7 +3027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3055,7 +3053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3082,7 +3080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -3109,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -3136,7 +3134,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3156,7 +3154,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3176,7 +3174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3196,7 +3194,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3216,7 +3214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3236,7 +3234,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3256,7 +3254,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3276,7 +3274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3296,7 +3294,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3316,7 +3314,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3336,136 +3334,136 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3500,22 +3498,22 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.77734375" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3542,7 +3540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -3570,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3598,41 +3596,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="8"/>
+    <row r="4" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="8">
+        <v>41319</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H4" s="68" t="s">
         <v>46</v>
       </c>
       <c r="I4" s="68"/>
       <c r="J4" s="42">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="8">
+        <v>41319</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H5" s="64" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="69"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="H10" s="41" t="s">
         <v>5</v>
@@ -3641,7 +3673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="H11" s="42" t="s">
         <v>28</v>
@@ -3651,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="42" t="s">
         <v>6</v>
@@ -3661,380 +3693,380 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
       <c r="H13" s="40" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="40">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -4058,6 +4090,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4074,19 +4107,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.77734375" style="3"/>
-    <col min="6" max="6" width="45.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="3"/>
+    <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -4113,7 +4146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="H2" s="70" t="s">
         <v>47</v>
@@ -4124,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>48</v>
@@ -4135,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>49</v>
@@ -4146,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="H5" s="68" t="s">
         <v>50</v>
@@ -4157,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="H6" s="72" t="s">
         <v>51</v>
@@ -4168,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="H7" s="74" t="s">
         <v>52</v>
@@ -4179,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="1"/>
       <c r="H8" s="64" t="s">
         <v>16</v>
@@ -4190,16 +4223,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -4207,7 +4240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H13" s="35" t="s">
         <v>28</v>
       </c>
@@ -4216,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -4225,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H15" s="34" t="s">
         <v>29</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="148">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -429,6 +429,45 @@
   </si>
   <si>
     <t>Alle Settings implementiert</t>
+  </si>
+  <si>
+    <t>WCF-Client implementieren, Testing</t>
+  </si>
+  <si>
+    <t>Kommunikation</t>
+  </si>
+  <si>
+    <t>Datenbankkommunikationsklassen</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>DQL</t>
+  </si>
+  <si>
+    <t>Debugging und Fehlerbehebung bei AddPortfolioSecurity</t>
+  </si>
+  <si>
+    <t>Usersettings und Presets</t>
+  </si>
+  <si>
+    <t>50% fertiggestellt</t>
+  </si>
+  <si>
+    <t>Userverwaltung mit ASP-Nauck Membership Provider</t>
+  </si>
+  <si>
+    <t>Membership (Login, Logout)</t>
+  </si>
+  <si>
+    <t>Fehler behoben</t>
+  </si>
+  <si>
+    <t>User-Interaktion mit Software (setSetting)</t>
+  </si>
+  <si>
+    <t>Start/Stop, MaxInvestment, Auto/Manual</t>
   </si>
 </sst>
 </file>
@@ -701,8 +740,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -850,15 +893,19 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+  <cellStyles count="13">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -879,7 +926,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -975,10 +1022,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,12 +1041,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="152102400"/>
-        <c:axId val="152103936"/>
+        <c:axId val="2091037368"/>
+        <c:axId val="2091053496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="152102400"/>
+        <c:axId val="2091037368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1055,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152103936"/>
+        <c:crossAx val="2091053496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152103936"/>
+        <c:axId val="2091053496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1079,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="152102400"/>
+        <c:crossAx val="2091037368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1046,7 +1093,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1055,7 +1102,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1143,13 +1190,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>104.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.5</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.5</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,12 +1212,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="152663168"/>
-        <c:axId val="152664704"/>
+        <c:axId val="2091122824"/>
+        <c:axId val="2091125768"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="152663168"/>
+        <c:axId val="2091122824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152664704"/>
+        <c:crossAx val="2091125768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1187,7 +1234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152664704"/>
+        <c:axId val="2091125768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152663168"/>
+        <c:crossAx val="2091122824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1209,7 +1256,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1569,17 +1616,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="56"/>
       <c r="B1" s="58" t="s">
         <v>24</v>
@@ -1590,7 +1637,7 @@
       <c r="D1" s="53"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="A2" s="57"/>
       <c r="B2" s="59"/>
       <c r="C2" s="15" t="s">
@@ -1600,7 +1647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -1615,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="53"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60" t="s">
@@ -1623,13 +1670,13 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="57"/>
       <c r="B5" s="59"/>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
     </row>
-    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1644,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1655,7 +1702,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1666,7 +1713,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1677,7 +1724,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1688,7 +1735,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1699,7 +1746,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
@@ -1714,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="43" t="s">
         <v>57</v>
       </c>
@@ -1725,7 +1772,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
@@ -1736,7 +1783,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="43" t="s">
         <v>59</v>
       </c>
@@ -1747,7 +1794,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="A16" s="43" t="s">
         <v>60</v>
       </c>
@@ -1758,7 +1805,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
@@ -1773,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="43" t="s">
         <v>61</v>
       </c>
@@ -1784,7 +1831,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -1795,7 +1842,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1806,7 +1853,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="44" t="s">
         <v>64</v>
       </c>
@@ -1817,13 +1864,13 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C22" s="30">
         <v>1</v>
@@ -1832,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
@@ -1843,29 +1890,29 @@
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="24">
         <f>Schnittstellen!J3</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" thickBot="1">
       <c r="A25" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
@@ -1880,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -1891,7 +1938,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
@@ -1902,7 +1949,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
@@ -1913,7 +1960,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="43" t="s">
         <v>74</v>
       </c>
@@ -1924,7 +1971,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -1935,7 +1982,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1">
       <c r="A32" s="44" t="s">
         <v>76</v>
       </c>
@@ -1946,45 +1993,45 @@
       <c r="C32" s="46"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="15" thickBot="1"/>
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="41"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="15" customHeight="1">
       <c r="B35" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="55"/>
       <c r="D35" s="12">
-        <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!J11,'Testing &amp; Abschluss'!I13)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!I11,'Testing &amp; Abschluss'!I13)</f>
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="42">
-        <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!J12,'Testing &amp; Abschluss'!I14)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15" thickBot="1">
       <c r="B37" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="51"/>
       <c r="D37" s="40">
-        <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!J13,'Testing &amp; Abschluss'!I15)</f>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!I13,'Testing &amp; Abschluss'!I15)</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -2015,18 +2062,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3"/>
-    <col min="5" max="5" width="10.7109375" style="27"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="27"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -2053,7 +2100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2081,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2109,7 +2156,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2165,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2193,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="D7" s="1"/>
       <c r="H7" s="64" t="s">
         <v>16</v>
@@ -2204,19 +2251,19 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2225,7 +2272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>28</v>
@@ -2235,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2245,7 +2292,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>29</v>
@@ -2255,15 +2302,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2297,22 +2344,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2339,7 +2386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2367,7 +2414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2395,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2451,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2479,7 +2526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2499,7 +2546,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2519,7 +2566,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2539,10 +2586,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -2551,7 +2598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2561,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2571,7 +2618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>29</v>
@@ -2581,166 +2628,166 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2774,22 +2821,22 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3"/>
-    <col min="5" max="5" width="10.7109375" style="47"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="47"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2816,7 +2863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2844,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2872,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2900,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2928,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2953,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2970,7 +3017,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2987,7 +3034,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -3007,7 +3054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3074,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3053,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3077,10 +3124,10 @@
       </c>
       <c r="I12" s="38">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -3107,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -3134,7 +3181,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3154,7 +3201,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3174,7 +3221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3194,7 +3241,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3214,7 +3261,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3234,7 +3281,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3254,7 +3301,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3274,7 +3321,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3294,7 +3341,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3314,7 +3361,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3334,136 +3381,201 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41322</v>
+      </c>
+      <c r="E25" s="47">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41326</v>
+      </c>
+      <c r="E26" s="47">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="1">
+        <v>41327</v>
+      </c>
+      <c r="E27" s="47">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="1">
+        <v>41328</v>
+      </c>
+      <c r="E28" s="47">
+        <v>7.5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3476,15 +3588,14 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A30:A40 A42:A47 A2:A3 A5:A27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A30:A40 A42:A47 A2:A3 A5:A25 A26">
       <formula1>$H$12:$H$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B5:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B5:B28 B30:B1048576">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3498,22 +3609,22 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3540,7 +3651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -3568,24 +3679,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D3" s="7">
-        <v>41318</v>
+        <v>41280</v>
       </c>
       <c r="E3" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H3" s="68" t="s">
         <v>45</v>
@@ -3593,27 +3704,27 @@
       <c r="I3" s="68"/>
       <c r="J3" s="42">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D4" s="8">
-        <v>41319</v>
+        <v>41281</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H4" s="68" t="s">
         <v>46</v>
@@ -3621,27 +3732,27 @@
       <c r="I4" s="68"/>
       <c r="J4" s="42">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="8">
-        <v>41319</v>
+        <v>130</v>
+      </c>
+      <c r="D5" s="7">
+        <v>41318</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H5" s="64" t="s">
         <v>16</v>
@@ -3649,22 +3760,73 @@
       <c r="I5" s="69"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="8">
+        <v>41319</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="8">
+        <v>41319</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="8">
+        <v>41325</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="D10" s="1"/>
       <c r="H10" s="41" t="s">
         <v>5</v>
@@ -3673,17 +3835,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="D11" s="1"/>
       <c r="H11" s="42" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="42">
         <f>SUMIF(A:A,H11,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="D12" s="1"/>
       <c r="H12" s="42" t="s">
         <v>6</v>
@@ -3693,7 +3855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="D13" s="1"/>
       <c r="H13" s="40" t="s">
         <v>29</v>
@@ -3703,370 +3865,370 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:10" s="3" customFormat="1">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:10" s="3" customFormat="1">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:10" s="3" customFormat="1">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:10" s="3" customFormat="1">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:10" s="3" customFormat="1">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:10" s="3" customFormat="1">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:10" s="3" customFormat="1">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:10" s="3" customFormat="1">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:10" s="3" customFormat="1">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:10" s="3" customFormat="1">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:10" s="3" customFormat="1">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" s="3" customFormat="1">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" s="3" customFormat="1">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" s="3" customFormat="1">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" s="3" customFormat="1">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" s="3" customFormat="1">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" s="3" customFormat="1">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" s="3" customFormat="1">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" s="3" customFormat="1">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" s="3" customFormat="1">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" s="3" customFormat="1">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" s="3" customFormat="1">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" s="3" customFormat="1">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" s="3" customFormat="1">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" s="3" customFormat="1">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" s="3" customFormat="1">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" s="3" customFormat="1">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" s="3" customFormat="1">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" s="3" customFormat="1">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10" s="3" customFormat="1">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10" s="3" customFormat="1">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:10" s="3" customFormat="1">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10" s="3" customFormat="1">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10" s="3" customFormat="1">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10" s="3" customFormat="1">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10" s="3" customFormat="1">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10" s="3" customFormat="1">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10" s="3" customFormat="1">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10" s="3" customFormat="1">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:10" s="3" customFormat="1">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10" s="3" customFormat="1">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:10" s="3" customFormat="1">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:10" s="3" customFormat="1">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:10" s="3" customFormat="1">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:10" s="3" customFormat="1">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" s="3" customFormat="1">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:10" s="3" customFormat="1">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:10" s="3" customFormat="1">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:10" s="3" customFormat="1">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:10" s="3" customFormat="1">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:10" s="3" customFormat="1">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -4090,7 +4252,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4107,19 +4269,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="3"/>
-    <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="45.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -4146,7 +4308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="D2" s="1"/>
       <c r="H2" s="70" t="s">
         <v>47</v>
@@ -4157,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>48</v>
@@ -4168,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>49</v>
@@ -4179,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="D5" s="1"/>
       <c r="H5" s="68" t="s">
         <v>50</v>
@@ -4190,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="D6" s="1"/>
       <c r="H6" s="72" t="s">
         <v>51</v>
@@ -4201,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="D7" s="1"/>
       <c r="H7" s="74" t="s">
         <v>52</v>
@@ -4212,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="D8" s="1"/>
       <c r="H8" s="64" t="s">
         <v>16</v>
@@ -4223,16 +4385,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -4240,7 +4402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="H13" s="35" t="s">
         <v>28</v>
       </c>
@@ -4249,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -4258,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="H15" s="34" t="s">
         <v>29</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="153">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -468,6 +468,21 @@
   </si>
   <si>
     <t>Start/Stop, MaxInvestment, Auto/Manual</t>
+  </si>
+  <si>
+    <t>Dictionary angefertigt</t>
+  </si>
+  <si>
+    <t>WCF-Server implementieren, Testing</t>
+  </si>
+  <si>
+    <t>WCF-Server bugfixing</t>
+  </si>
+  <si>
+    <t>Fehler gefunden</t>
+  </si>
+  <si>
+    <t>ein weiterer Fehler gefunden (DataContract)</t>
   </si>
 </sst>
 </file>
@@ -894,18 +909,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -926,7 +941,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1022,10 +1037,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,12 +1056,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2091037368"/>
-        <c:axId val="2091053496"/>
+        <c:axId val="86763392"/>
+        <c:axId val="86764928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2091037368"/>
+        <c:axId val="86763392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1070,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091053496"/>
+        <c:crossAx val="86764928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1063,7 +1078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091053496"/>
+        <c:axId val="86764928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1094,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2091037368"/>
+        <c:crossAx val="86763392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1093,7 +1108,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1102,7 +1117,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1193,10 +1208,10 @@
                   <c:v>104.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.5</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,12 +1227,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2091122824"/>
-        <c:axId val="2091125768"/>
+        <c:axId val="86856832"/>
+        <c:axId val="86858368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2091122824"/>
+        <c:axId val="86856832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091125768"/>
+        <c:crossAx val="86858368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1234,7 +1249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091125768"/>
+        <c:axId val="86858368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091122824"/>
+        <c:crossAx val="86856832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1256,7 +1271,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1616,17 +1631,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
       <c r="B1" s="58" t="s">
         <v>24</v>
@@ -1637,7 +1652,7 @@
       <c r="D1" s="53"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57"/>
       <c r="B2" s="59"/>
       <c r="C2" s="15" t="s">
@@ -1647,7 +1662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="58"/>
       <c r="C4" s="60" t="s">
@@ -1670,13 +1685,13 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57"/>
       <c r="B5" s="59"/>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1691,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1702,7 +1717,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1713,7 +1728,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1724,7 +1739,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1735,7 +1750,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1746,7 +1761,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
@@ -1761,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>57</v>
       </c>
@@ -1772,7 +1787,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>58</v>
       </c>
@@ -1783,7 +1798,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>59</v>
       </c>
@@ -1794,7 +1809,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>60</v>
       </c>
@@ -1805,7 +1820,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
@@ -1820,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>61</v>
       </c>
@@ -1831,7 +1846,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -1842,7 +1857,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1853,7 +1868,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>64</v>
       </c>
@@ -1864,13 +1879,13 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
-        <v>27</v>
+        <v>44.5</v>
       </c>
       <c r="C22" s="30">
         <v>1</v>
@@ -1879,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>68</v>
       </c>
@@ -1890,7 +1905,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>69</v>
       </c>
@@ -1901,18 +1916,18 @@
       <c r="C24" s="32"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
-        <v>14</v>
+        <v>31.5</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
@@ -1927,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>71</v>
       </c>
@@ -1938,7 +1953,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>72</v>
       </c>
@@ -1949,7 +1964,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
@@ -1960,7 +1975,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>74</v>
       </c>
@@ -1971,7 +1986,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>75</v>
       </c>
@@ -1982,7 +1997,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>76</v>
       </c>
@@ -1993,15 +2008,15 @@
       <c r="C32" s="46"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1"/>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="41"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1">
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="54" t="s">
         <v>30</v>
       </c>
@@ -2011,27 +2026,27 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="42">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="51"/>
       <c r="D37" s="40">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!I13,'Testing &amp; Abschluss'!I15)</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -2062,18 +2077,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="27"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="27"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -2100,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2128,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2156,7 +2171,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2184,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2212,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2240,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="H7" s="64" t="s">
         <v>16</v>
@@ -2251,19 +2266,19 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2272,7 +2287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="35" t="s">
         <v>28</v>
@@ -2282,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="35" t="s">
         <v>6</v>
@@ -2292,7 +2307,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="35" t="s">
         <v>29</v>
@@ -2302,15 +2317,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2344,22 +2359,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2386,7 +2401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2414,7 +2429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2442,7 +2457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +2485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2498,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2526,7 +2541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2546,7 +2561,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2566,7 +2581,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2586,10 +2601,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -2598,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2608,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2618,7 +2633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>29</v>
@@ -2628,166 +2643,166 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2820,23 +2835,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="47"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="47"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2863,7 +2878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2891,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2919,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2947,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2975,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3000,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -3017,7 +3032,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3034,7 +3049,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -3054,7 +3069,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3074,7 +3089,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3100,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3127,7 +3142,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -3154,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -3181,7 +3196,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3201,7 +3216,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3221,7 +3236,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3241,7 +3256,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3261,7 +3276,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3281,7 +3296,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3301,7 +3316,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3321,7 +3336,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3341,7 +3356,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3361,7 +3376,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3381,7 +3396,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -3401,7 +3416,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3421,7 +3436,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -3441,7 +3456,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -3461,121 +3476,121 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3608,23 +3623,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3651,7 +3666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -3679,7 +3694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3707,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -3732,10 +3747,10 @@
       <c r="I4" s="68"/>
       <c r="J4" s="42">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3760,10 +3775,10 @@
       <c r="I5" s="69"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -3783,9 +3798,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>46</v>
@@ -3803,7 +3818,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3823,11 +3838,45 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
-      <c r="D10" s="1"/>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41325</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41326</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="H10" s="41" t="s">
         <v>5</v>
       </c>
@@ -3835,8 +3884,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="D11" s="1"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41326</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="H11" s="42" t="s">
         <v>28</v>
       </c>
@@ -3845,390 +3911,407 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41340</v>
+      </c>
+      <c r="E12" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="H12" s="42" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="42">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="H13" s="40" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="40">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1">
+    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1">
+    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1">
+    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1">
+    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1">
+    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1">
+    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1">
+    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1">
+    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1">
+    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1">
+    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1">
+    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1">
+    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1">
+    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1">
+    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1">
+    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1">
+    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -4252,7 +4335,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4269,19 +4352,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="45.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -4308,7 +4391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="H2" s="70" t="s">
         <v>47</v>
@@ -4319,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="68" t="s">
         <v>48</v>
@@ -4330,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="68" t="s">
         <v>49</v>
@@ -4341,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="H5" s="68" t="s">
         <v>50</v>
@@ -4352,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="H6" s="72" t="s">
         <v>51</v>
@@ -4363,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="H7" s="74" t="s">
         <v>52</v>
@@ -4374,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="H8" s="64" t="s">
         <v>16</v>
@@ -4385,16 +4468,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -4402,7 +4485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="35" t="s">
         <v>28</v>
       </c>
@@ -4411,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
@@ -4420,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="34" t="s">
         <v>29</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8325"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="153">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -770,7 +770,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -798,9 +798,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1056,12 +1053,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="86763392"/>
-        <c:axId val="86764928"/>
+        <c:axId val="85958016"/>
+        <c:axId val="85959808"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="86763392"/>
+        <c:axId val="85958016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1067,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86764928"/>
+        <c:crossAx val="85959808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86764928"/>
+        <c:axId val="85959808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1091,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86763392"/>
+        <c:crossAx val="85958016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1208,7 +1205,7 @@
                   <c:v>104.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.5</c:v>
@@ -1227,12 +1224,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="86856832"/>
-        <c:axId val="86858368"/>
+        <c:axId val="88278144"/>
+        <c:axId val="88279680"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="86856832"/>
+        <c:axId val="88278144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86858368"/>
+        <c:crossAx val="88279680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,7 +1246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86858368"/>
+        <c:axId val="88279680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86856832"/>
+        <c:crossAx val="88278144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1631,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -1642,19 +1639,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="55"/>
+      <c r="B1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="53"/>
+      <c r="D1" s="52"/>
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="59"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
@@ -1668,28 +1665,28 @@
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>36.5</v>
-      </c>
-      <c r="C3" s="28">
+        <v>38.5</v>
+      </c>
+      <c r="C3" s="27">
         <v>1</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -1697,12 +1694,12 @@
       </c>
       <c r="B6" s="19">
         <f>Projektmanagement!J7</f>
-        <v>5.5</v>
-      </c>
-      <c r="C6" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>1</v>
       </c>
     </row>
@@ -1714,8 +1711,8 @@
         <f>Projektmanagement!J2</f>
         <v>0</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -1723,10 +1720,10 @@
       </c>
       <c r="B8" s="21">
         <f>Projektmanagement!J3</f>
-        <v>3.5</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+        <v>5.5</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -1736,8 +1733,8 @@
         <f>Projektmanagement!J4</f>
         <v>2</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1747,8 +1744,8 @@
         <f>Projektmanagement!J5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -1758,255 +1755,255 @@
         <f>Projektmanagement!J6</f>
         <v>0</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
         <v>31</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="29">
         <v>1</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
         <v>18</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="24">
         <f>Software!J3</f>
         <v>7</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="24">
         <f>Software!J4</f>
         <v>6</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="24">
         <f>Software!J5</f>
         <v>0</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="19">
         <f>Website!J8</f>
         <v>0</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <v>1</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="24">
         <f>Website!J2</f>
         <v>0</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="24">
         <f>Website!J3</f>
         <v>0</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="24">
         <f>Website!J4</f>
         <v>0</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="24">
         <f>Website!J5</f>
         <v>0</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="44" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
         <v>44.5</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="29">
         <v>1</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="24">
         <f>Schnittstellen!J2</f>
         <v>4</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="24">
         <f>Schnittstellen!J3</f>
         <v>9</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
         <v>31.5</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="19">
         <f>'Testing &amp; Abschluss'!J8</f>
         <v>0</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="29">
         <v>1</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="42" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="21">
         <f>'Testing &amp; Abschluss'!J2</f>
         <v>0</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="42" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="21">
         <f>'Testing &amp; Abschluss'!J3</f>
         <v>0</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="42" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="21">
         <f>'Testing &amp; Abschluss'!J4</f>
         <v>0</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="21">
         <f>'Testing &amp; Abschluss'!J5</f>
         <v>0</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="21">
         <f>'Testing &amp; Abschluss'!J6</f>
         <v>0</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="23">
         <f>'Testing &amp; Abschluss'!J7</f>
         <v>0</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2014,34 +2011,34 @@
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="55"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!I11,'Testing &amp; Abschluss'!I13)</f>
         <v>104.5</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="42">
+      <c r="C36" s="48"/>
+      <c r="D36" s="41">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="40">
+      <c r="C37" s="50"/>
+      <c r="D37" s="39">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!I13,'Testing &amp; Abschluss'!I15)</f>
         <v>48.5</v>
       </c>
@@ -2073,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2080,7 @@
     <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="27"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
     <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2101,16 +2098,16 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="67"/>
+      <c r="H1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="66"/>
       <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
@@ -2128,16 +2125,16 @@
       <c r="D2" s="1">
         <v>41227</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="68"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
@@ -2156,19 +2153,19 @@
       <c r="D3" s="1">
         <v>41231</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2184,16 +2181,16 @@
       <c r="D4" s="1">
         <v>41234</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>0.5</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="68"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>2</v>
@@ -2212,16 +2209,16 @@
       <c r="D5" s="1">
         <v>41248</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>0.5</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="68"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
@@ -2240,40 +2237,108 @@
       <c r="D6" s="1">
         <v>41262</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>0.5</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="66"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="5">
         <f>SUMIF(B:B,H6,E:E)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-      <c r="H7" s="64" t="s">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41290</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="10">
         <f>SUM(J2:J6)</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="25"/>
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41304</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41325</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41340</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
@@ -2289,7 +2354,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="34" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="4">
@@ -2299,17 +2364,17 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="4">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="4">
@@ -2319,8 +2384,8 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
@@ -2393,10 +2458,10 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="67"/>
+      <c r="H1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="66"/>
       <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
@@ -2420,10 +2485,10 @@
       <c r="F2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="71"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>18</v>
@@ -2448,10 +2513,10 @@
       <c r="F3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>7</v>
@@ -2476,10 +2541,10 @@
       <c r="F4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="73"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>6</v>
@@ -2504,10 +2569,10 @@
       <c r="F5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="75"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
@@ -2532,10 +2597,10 @@
       <c r="F6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="69"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
         <v>31</v>
@@ -2635,10 +2700,10 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <f>SUMIF(A:A,H14,E:E)</f>
         <v>22</v>
       </c>
@@ -2845,7 +2910,7 @@
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="47"/>
+    <col min="5" max="5" width="10.85546875" style="46"/>
     <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
@@ -2864,17 +2929,17 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="37" t="s">
+      <c r="H1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="66"/>
+      <c r="J1" s="36" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2891,17 +2956,17 @@
       <c r="D2" s="7">
         <v>41227</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="46">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="38">
+      <c r="I2" s="70"/>
+      <c r="J2" s="37">
         <f>SUMIF(B:B,Gesamtstatus!A18,E:E)</f>
         <v>0</v>
       </c>
@@ -2919,17 +2984,17 @@
       <c r="D3" s="7">
         <v>41234</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="38">
+      <c r="I3" s="72"/>
+      <c r="J3" s="37">
         <f>SUMIF(B:B,Gesamtstatus!A19,E:E)</f>
         <v>0</v>
       </c>
@@ -2947,17 +3012,17 @@
       <c r="D4" s="1">
         <v>41238</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="38">
+      <c r="I4" s="72"/>
+      <c r="J4" s="37">
         <f>SUMIF(B:B,Gesamtstatus!A20,E:E)</f>
         <v>0</v>
       </c>
@@ -2975,17 +3040,17 @@
       <c r="D5" s="8">
         <v>41241</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <v>4.5</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="38">
+      <c r="I5" s="74"/>
+      <c r="J5" s="37">
         <f>SUMIF(B:B,Gesamtstatus!A21,E:E)</f>
         <v>0</v>
       </c>
@@ -3003,13 +3068,13 @@
       <c r="D6" s="1">
         <v>41248</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <v>2.5</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="69"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
         <v>0</v>
@@ -3028,7 +3093,7 @@
       <c r="D7" s="1">
         <v>41248</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <v>2.5</v>
       </c>
     </row>
@@ -3045,7 +3110,7 @@
       <c r="D8" s="1">
         <v>41255</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="46">
         <v>1.5</v>
       </c>
     </row>
@@ -3062,7 +3127,7 @@
       <c r="D9" s="7">
         <v>41261</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3082,7 +3147,7 @@
       <c r="D10" s="7">
         <v>41261</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -3102,16 +3167,16 @@
       <c r="D11" s="1">
         <v>41262</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="36" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3128,16 +3193,16 @@
       <c r="D12" s="1">
         <v>41270</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="46">
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <f>SUMIF(A:A,H12,E:E)</f>
         <v>91.5</v>
       </c>
@@ -3155,16 +3220,16 @@
       <c r="D13" s="1">
         <v>41271</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="46">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="37">
         <f>SUMIF(A:A,H13,E:E)</f>
         <v>0</v>
       </c>
@@ -3182,16 +3247,16 @@
       <c r="D14" s="1">
         <v>41274</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="46">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
         <v>7.5</v>
       </c>
@@ -3209,7 +3274,7 @@
       <c r="D15" s="1">
         <v>40912</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -3229,7 +3294,7 @@
       <c r="D16" s="1">
         <v>40913</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="46">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -3249,7 +3314,7 @@
       <c r="D17" s="1">
         <v>41283</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="46">
         <v>4.5</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -3269,7 +3334,7 @@
       <c r="D18" s="1">
         <v>41284</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="46">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -3289,7 +3354,7 @@
       <c r="D19" s="1">
         <v>41284</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="46">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -3309,7 +3374,7 @@
       <c r="D20" s="1">
         <v>41290</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <v>1.5</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -3329,7 +3394,7 @@
       <c r="D21" s="1">
         <v>41298</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="46">
         <v>6</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -3349,7 +3414,7 @@
       <c r="D22" s="1">
         <v>41301</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="46">
         <v>6.5</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -3369,7 +3434,7 @@
       <c r="D23" s="1">
         <v>41302</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="46">
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -3389,7 +3454,7 @@
       <c r="D24" s="1">
         <v>41303</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="46">
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3409,7 +3474,7 @@
       <c r="D25" s="1">
         <v>41322</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="46">
         <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -3429,7 +3494,7 @@
       <c r="D26" s="1">
         <v>41326</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="46">
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -3449,7 +3514,7 @@
       <c r="D27" s="1">
         <v>41327</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="46">
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -3469,7 +3534,7 @@
       <c r="D28" s="1">
         <v>41328</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="46">
         <v>7.5</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -3658,11 +3723,11 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="66"/>
+      <c r="J1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3685,11 +3750,11 @@
       <c r="F2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="42">
+      <c r="I2" s="67"/>
+      <c r="J2" s="41">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>4</v>
       </c>
@@ -3713,11 +3778,11 @@
       <c r="F3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="42">
+      <c r="I3" s="67"/>
+      <c r="J3" s="41">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>9</v>
       </c>
@@ -3741,11 +3806,11 @@
       <c r="F4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="42">
+      <c r="I4" s="67"/>
+      <c r="J4" s="41">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>31.5</v>
       </c>
@@ -3769,10 +3834,10 @@
       <c r="F5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
         <v>44.5</v>
@@ -3877,10 +3942,10 @@
       <c r="F10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="40" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3903,10 +3968,10 @@
       <c r="F11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <f>SUMIF(A:A,H11,E:E)</f>
         <v>13</v>
       </c>
@@ -3924,26 +3989,26 @@
       <c r="D12" s="1">
         <v>41340</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <v>4.5</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="41">
         <f>SUMIF(A:A,H12,E:E)</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <f>SUMIF(A:A,H13,E:E)</f>
         <v>19</v>
       </c>
@@ -4383,20 +4448,20 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="67"/>
+      <c r="H1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="66"/>
       <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="71"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="4">
         <f t="shared" ref="J2:J7" si="0">SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
@@ -4404,10 +4469,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4415,10 +4480,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="68"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4426,21 +4491,21 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="42">
+      <c r="I5" s="67"/>
+      <c r="J5" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="76"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4448,10 +4513,10 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4459,10 +4524,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="69"/>
+      <c r="I8" s="68"/>
       <c r="J8" s="10">
         <f>SUM(J2:J7)</f>
         <v>0</v>
@@ -4486,7 +4551,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="34" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="4">
@@ -4495,7 +4560,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="4">
@@ -4504,10 +4569,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <f>SUMIF(A:A,H15,E:E)</f>
         <v>0</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8325" activeTab="1"/>
+    <workbookView xWindow="10236" yWindow="-12" windowWidth="10272" windowHeight="8328" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="155">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t>ein weiterer Fehler gefunden (DataContract)</t>
+  </si>
+  <si>
+    <t>neues WCF-Konzept</t>
+  </si>
+  <si>
+    <t>Erste vollstänfg funktionierende WCF-Verbindung</t>
   </si>
 </sst>
 </file>
@@ -965,7 +971,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1053,12 +1058,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="85958016"/>
-        <c:axId val="85959808"/>
+        <c:axId val="6116864"/>
+        <c:axId val="6118400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85958016"/>
+        <c:axId val="6116864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1072,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85959808"/>
+        <c:crossAx val="6118400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85959808"/>
+        <c:axId val="6118400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1096,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85958016"/>
+        <c:crossAx val="6116864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1126,7 +1131,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1205,7 +1209,7 @@
                   <c:v>104.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.5</c:v>
@@ -1224,12 +1228,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="88278144"/>
-        <c:axId val="88279680"/>
+        <c:axId val="6151168"/>
+        <c:axId val="6152960"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="88278144"/>
+        <c:axId val="6151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88279680"/>
+        <c:crossAx val="6152960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1246,7 +1250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88279680"/>
+        <c:axId val="6152960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88278144"/>
+        <c:crossAx val="6151168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1632,13 +1636,13 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="55"/>
       <c r="B1" s="57" t="s">
         <v>24</v>
@@ -1649,7 +1653,7 @@
       <c r="D1" s="52"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="58"/>
       <c r="C2" s="15" t="s">
@@ -1674,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="57"/>
       <c r="C4" s="59" t="s">
@@ -1682,13 +1686,13 @@
       </c>
       <c r="D4" s="60"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="56"/>
       <c r="B5" s="58"/>
       <c r="C5" s="61"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1714,7 +1718,7 @@
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1729,7 @@
       <c r="C8" s="31"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1736,7 +1740,7 @@
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1758,7 +1762,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>65</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>57</v>
       </c>
@@ -1784,7 +1788,7 @@
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>58</v>
       </c>
@@ -1795,7 +1799,7 @@
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>59</v>
       </c>
@@ -1817,7 +1821,7 @@
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>61</v>
       </c>
@@ -1843,7 +1847,7 @@
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>62</v>
       </c>
@@ -1854,7 +1858,7 @@
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>63</v>
       </c>
@@ -1876,13 +1880,13 @@
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
-        <v>44.5</v>
+        <v>48.5</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -1891,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>68</v>
       </c>
@@ -1902,7 +1906,7 @@
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>69</v>
       </c>
@@ -1919,12 +1923,12 @@
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
-        <v>31.5</v>
+        <v>35.5</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>71</v>
       </c>
@@ -1950,7 +1954,7 @@
       <c r="C27" s="31"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>72</v>
       </c>
@@ -1961,7 +1965,7 @@
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>73</v>
       </c>
@@ -1972,7 +1976,7 @@
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>74</v>
       </c>
@@ -1983,7 +1987,7 @@
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
         <v>75</v>
       </c>
@@ -1994,7 +1998,7 @@
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
         <v>76</v>
       </c>
@@ -2023,14 +2027,14 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="41">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2070,19 +2074,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2112,7 +2116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2320,7 +2324,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="34" t="s">
         <v>28</v>
@@ -2362,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>6</v>
@@ -2382,15 +2386,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2424,19 +2428,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2466,7 +2470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2494,7 +2498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2626,7 +2630,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2646,7 +2650,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2688,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2708,166 +2712,166 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2904,16 +2908,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="46"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="46"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2943,7 +2947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2971,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -3097,7 +3101,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3114,7 +3118,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3180,7 +3184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3207,7 +3211,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3281,7 +3285,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3321,7 +3325,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3341,7 +3345,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3401,7 +3405,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -3481,7 +3485,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3501,7 +3505,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -3541,121 +3545,121 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3688,20 +3692,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3731,7 +3735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -3759,7 +3763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3812,7 +3816,7 @@
       <c r="I4" s="67"/>
       <c r="J4" s="41">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>31.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3840,10 +3844,10 @@
       <c r="I5" s="68"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -3863,7 +3867,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3883,7 +3887,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3976,7 +3980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -4000,11 +4004,28 @@
       </c>
       <c r="I12" s="41">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41340</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="H13" s="39" t="s">
         <v>29</v>
       </c>
@@ -4013,370 +4034,370 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -4417,16 +4438,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="6" max="6" width="45.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4456,7 +4477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="H2" s="69" t="s">
         <v>47</v>
@@ -4467,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="H3" s="67" t="s">
         <v>48</v>
@@ -4478,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="H4" s="67" t="s">
         <v>49</v>
@@ -4489,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>50</v>
@@ -4500,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="71" t="s">
         <v>51</v>
@@ -4511,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="H7" s="73" t="s">
         <v>52</v>
@@ -4533,10 +4554,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4550,7 +4571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="H13" s="34" t="s">
         <v>28</v>
       </c>
@@ -4559,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="H14" s="34" t="s">
         <v>6</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="157">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>Erste vollstänfg funktionierende WCF-Verbindung</t>
+  </si>
+  <si>
+    <t>neues WCF-Konzept schön eingesetzt</t>
+  </si>
+  <si>
+    <t>Fehler in der WCF-Implementierung behoben</t>
   </si>
 </sst>
 </file>
@@ -1058,12 +1064,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="6116864"/>
-        <c:axId val="6118400"/>
+        <c:axId val="38430208"/>
+        <c:axId val="38431744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="6116864"/>
+        <c:axId val="38430208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1078,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="6118400"/>
+        <c:crossAx val="38431744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,7 +1086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6118400"/>
+        <c:axId val="38431744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1102,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="6116864"/>
+        <c:crossAx val="38430208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1209,7 +1215,7 @@
                   <c:v>104.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.5</c:v>
@@ -1228,12 +1234,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="6151168"/>
-        <c:axId val="6152960"/>
+        <c:axId val="38464512"/>
+        <c:axId val="38466304"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="6151168"/>
+        <c:axId val="38464512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="6152960"/>
+        <c:crossAx val="38466304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1250,7 +1256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6152960"/>
+        <c:axId val="38466304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="6151168"/>
+        <c:crossAx val="38464512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1886,7 +1892,7 @@
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
-        <v>48.5</v>
+        <v>51.5</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -1923,7 +1929,7 @@
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
-        <v>35.5</v>
+        <v>38.5</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
@@ -2034,7 +2040,7 @@
       <c r="C36" s="48"/>
       <c r="D36" s="41">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3693,7 +3699,7 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3816,7 +3822,7 @@
       <c r="I4" s="67"/>
       <c r="J4" s="41">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>35.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3844,7 +3850,7 @@
       <c r="I5" s="68"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
-        <v>48.5</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -4004,10 +4010,10 @@
       </c>
       <c r="I12" s="41">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -4035,7 +4041,24 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41343</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10236" yWindow="-12" windowWidth="10272" windowHeight="8328" activeTab="4"/>
+    <workbookView xWindow="10240" yWindow="-20" windowWidth="10280" windowHeight="8320"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="161">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>Fehler in der WCF-Implementierung behoben</t>
+  </si>
+  <si>
+    <t>Trigger/Presets</t>
+  </si>
+  <si>
+    <t>Trigger, PresetsPage</t>
+  </si>
+  <si>
+    <t>WCF-Kommunikation testen</t>
+  </si>
+  <si>
+    <t>80 % der Funktionen getestet</t>
   </si>
 </sst>
 </file>
@@ -767,8 +779,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -917,19 +931,21 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+  <cellStyles count="15">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -950,7 +966,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -977,6 +993,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1045,10 +1062,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,12 +1081,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="38430208"/>
-        <c:axId val="38431744"/>
+        <c:axId val="2130400584"/>
+        <c:axId val="2130401992"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38430208"/>
+        <c:axId val="2130400584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1095,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38431744"/>
+        <c:crossAx val="2130401992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1086,7 +1103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38431744"/>
+        <c:axId val="2130401992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1119,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38430208"/>
+        <c:crossAx val="2130400584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,7 +1133,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1125,7 +1142,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1137,6 +1154,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1212,10 +1230,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>104.5</c:v>
+                  <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.5</c:v>
@@ -1234,12 +1252,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="38464512"/>
-        <c:axId val="38466304"/>
+        <c:axId val="2130437528"/>
+        <c:axId val="2130440536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38464512"/>
+        <c:axId val="2130437528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +1266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38466304"/>
+        <c:crossAx val="2130440536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1256,7 +1274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38466304"/>
+        <c:axId val="2130440536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38464512"/>
+        <c:crossAx val="2130437528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1278,7 +1296,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1638,17 +1656,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="55"/>
       <c r="B1" s="57" t="s">
         <v>24</v>
@@ -1659,7 +1677,7 @@
       <c r="D1" s="52"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="A2" s="56"/>
       <c r="B2" s="58"/>
       <c r="C2" s="15" t="s">
@@ -1669,7 +1687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -1684,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="52"/>
       <c r="B4" s="57"/>
       <c r="C4" s="59" t="s">
@@ -1692,13 +1710,13 @@
       </c>
       <c r="D4" s="60"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="56"/>
       <c r="B5" s="58"/>
       <c r="C5" s="61"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1713,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1724,7 +1742,7 @@
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1735,7 +1753,7 @@
       <c r="C8" s="31"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1746,7 +1764,7 @@
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1757,7 +1775,7 @@
       <c r="C10" s="31"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1768,7 +1786,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="44" t="s">
         <v>65</v>
       </c>
@@ -1783,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="42" t="s">
         <v>57</v>
       </c>
@@ -1794,7 +1812,7 @@
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="42" t="s">
         <v>58</v>
       </c>
@@ -1805,7 +1823,7 @@
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="42" t="s">
         <v>59</v>
       </c>
@@ -1816,7 +1834,7 @@
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="A16" s="42" t="s">
         <v>60</v>
       </c>
@@ -1827,7 +1845,7 @@
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
@@ -1842,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="42" t="s">
         <v>61</v>
       </c>
@@ -1853,7 +1871,7 @@
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="42" t="s">
         <v>62</v>
       </c>
@@ -1864,7 +1882,7 @@
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="42" t="s">
         <v>63</v>
       </c>
@@ -1875,7 +1893,7 @@
       <c r="C20" s="31"/>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="43" t="s">
         <v>64</v>
       </c>
@@ -1886,13 +1904,13 @@
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="44" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
-        <v>51.5</v>
+        <v>55.5</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -1901,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="42" t="s">
         <v>68</v>
       </c>
@@ -1912,29 +1930,29 @@
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="24">
         <f>Schnittstellen!J3</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1">
       <c r="A25" s="42" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
@@ -1949,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="42" t="s">
         <v>71</v>
       </c>
@@ -1960,7 +1978,7 @@
       <c r="C27" s="31"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="42" t="s">
         <v>72</v>
       </c>
@@ -1971,7 +1989,7 @@
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="42" t="s">
         <v>73</v>
       </c>
@@ -1982,7 +2000,7 @@
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="42" t="s">
         <v>74</v>
       </c>
@@ -1993,7 +2011,7 @@
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="42" t="s">
         <v>75</v>
       </c>
@@ -2004,7 +2022,7 @@
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" thickBot="1">
       <c r="A32" s="43" t="s">
         <v>76</v>
       </c>
@@ -2015,25 +2033,25 @@
       <c r="C32" s="45"/>
       <c r="D32" s="28"/>
     </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="15" thickBot="1"/>
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="40"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="15" customHeight="1">
       <c r="B35" s="53" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="54"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!I11,'Testing &amp; Abschluss'!I13)</f>
-        <v>104.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="47" t="s">
         <v>15</v>
       </c>
@@ -2043,7 +2061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="15" thickBot="1">
       <c r="B37" s="49" t="s">
         <v>31</v>
       </c>
@@ -2053,7 +2071,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -2084,18 +2102,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -2122,7 +2140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2178,7 +2196,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2206,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2234,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +2308,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2310,7 +2328,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +2348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2350,10 +2368,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2362,7 +2380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="34" t="s">
         <v>28</v>
@@ -2372,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>6</v>
@@ -2382,7 +2400,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="34" t="s">
         <v>29</v>
@@ -2392,15 +2410,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2438,18 +2456,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2476,7 +2494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2504,7 +2522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2532,7 +2550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2560,7 +2578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2588,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2616,7 +2634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2636,7 +2654,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +2674,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2676,10 +2694,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -2688,7 +2706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2698,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2708,7 +2726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>29</v>
@@ -2718,166 +2736,166 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2910,23 +2928,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="46"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="46"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2953,7 +2971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2981,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3009,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -3037,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -3065,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3090,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -3107,7 +3125,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3124,7 +3142,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -3144,7 +3162,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3190,7 +3208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3217,7 +3235,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -3244,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3291,7 +3309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3311,7 +3329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3331,7 +3349,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3351,7 +3369,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3371,7 +3389,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3391,7 +3409,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3411,7 +3429,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3431,7 +3449,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3451,7 +3469,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3471,7 +3489,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -3491,7 +3509,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3511,7 +3529,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -3531,7 +3549,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -3551,121 +3569,121 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3698,23 +3716,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="2" max="2" width="47.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3741,7 +3759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -3769,7 +3787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3794,10 +3812,10 @@
       <c r="I3" s="67"/>
       <c r="J3" s="41">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -3822,10 +3840,10 @@
       <c r="I4" s="67"/>
       <c r="J4" s="41">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3850,10 +3868,10 @@
       <c r="I5" s="68"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -3873,7 +3891,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3893,7 +3911,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3913,7 +3931,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3933,7 +3951,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -3959,7 +3977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3983,10 +4001,10 @@
       </c>
       <c r="I11" s="41">
         <f>SUMIF(A:A,H11,E:E)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -4013,7 +4031,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -4040,387 +4058,421 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D14" s="1">
-        <v>41343</v>
+        <v>41332</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41343</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:10" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41345</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" s="3" customFormat="1">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" s="3" customFormat="1">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" s="3" customFormat="1">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" s="3" customFormat="1">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" s="3" customFormat="1">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" s="3" customFormat="1">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" s="3" customFormat="1">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" s="3" customFormat="1">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" s="3" customFormat="1">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" s="3" customFormat="1">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" s="3" customFormat="1">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" s="3" customFormat="1">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" s="3" customFormat="1">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" s="3" customFormat="1">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" s="3" customFormat="1">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:10" s="3" customFormat="1">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:10" s="3" customFormat="1">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:10" s="3" customFormat="1">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:10" s="3" customFormat="1">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:10" s="3" customFormat="1">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:10" s="3" customFormat="1">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:10" s="3" customFormat="1">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:10" s="3" customFormat="1">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:10" s="3" customFormat="1">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:10" s="3" customFormat="1">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:10" s="3" customFormat="1">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:10" s="3" customFormat="1">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:10" s="3" customFormat="1">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:10" s="3" customFormat="1">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:10" s="3" customFormat="1">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:10" s="3" customFormat="1">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:10" s="3" customFormat="1">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:10" s="3" customFormat="1">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:10" s="3" customFormat="1">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:10" s="3" customFormat="1">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:10" s="3" customFormat="1">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:10" s="3" customFormat="1">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:10" s="3" customFormat="1">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:10" s="3" customFormat="1">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:10" s="3" customFormat="1">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:10" s="3" customFormat="1">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:10" s="3" customFormat="1">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:10" s="3" customFormat="1">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:10" s="3" customFormat="1">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:10" s="3" customFormat="1">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:10" s="3" customFormat="1">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:10" s="3" customFormat="1">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:10" s="3" customFormat="1">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:10" s="3" customFormat="1">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:10" s="3" customFormat="1">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:10" s="3" customFormat="1">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -4439,12 +4491,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17:A22 A49:A1048576 A41:A46 A29:A39 A24:A26 A2:A15">
       <formula1>$H$11:$H$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B1048576 B16:B22 B24:B26 B28:B38 B40:B45 B1:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B1048576 B24:B26 B28:B38 B40:B45 B1:B22">
       <formula1>$H$2:$H$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4458,22 +4510,22 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
     <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="45.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -4500,7 +4552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="D2" s="1"/>
       <c r="H2" s="69" t="s">
         <v>47</v>
@@ -4511,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="D3" s="1"/>
       <c r="H3" s="67" t="s">
         <v>48</v>
@@ -4522,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="D4" s="1"/>
       <c r="H4" s="67" t="s">
         <v>49</v>
@@ -4533,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>50</v>
@@ -4544,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="D6" s="1"/>
       <c r="H6" s="71" t="s">
         <v>51</v>
@@ -4555,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="D7" s="1"/>
       <c r="H7" s="73" t="s">
         <v>52</v>
@@ -4566,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="D8" s="1"/>
       <c r="H8" s="63" t="s">
         <v>16</v>
@@ -4577,16 +4629,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -4594,7 +4646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="H13" s="34" t="s">
         <v>28</v>
       </c>
@@ -4603,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
@@ -4612,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="H15" s="33" t="s">
         <v>29</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="-20" windowWidth="10280" windowHeight="8320"/>
+    <workbookView xWindow="10245" yWindow="-15" windowWidth="10275" windowHeight="8325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="163">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>80 % der Funktionen getestet</t>
+  </si>
+  <si>
+    <t>WCF finalisieren</t>
+  </si>
+  <si>
+    <t>Kommunikation funktioniert</t>
   </si>
 </sst>
 </file>
@@ -932,20 +938,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -966,7 +972,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1062,10 +1068,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,12 +1087,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2130400584"/>
-        <c:axId val="2130401992"/>
+        <c:axId val="84070784"/>
+        <c:axId val="84072320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2130400584"/>
+        <c:axId val="84070784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1101,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130401992"/>
+        <c:crossAx val="84072320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1103,7 +1109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130401992"/>
+        <c:axId val="84072320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1125,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2130400584"/>
+        <c:crossAx val="84070784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1133,7 +1139,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1142,7 +1148,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1233,10 +1239,10 @@
                   <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.5</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,12 +1258,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2130437528"/>
-        <c:axId val="2130440536"/>
+        <c:axId val="92170112"/>
+        <c:axId val="92171648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2130437528"/>
+        <c:axId val="92170112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130440536"/>
+        <c:crossAx val="92171648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1274,7 +1280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130440536"/>
+        <c:axId val="92171648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130437528"/>
+        <c:crossAx val="92170112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1296,7 +1302,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1656,17 +1662,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
       <c r="B1" s="57" t="s">
         <v>24</v>
@@ -1677,7 +1683,7 @@
       <c r="D1" s="52"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56"/>
       <c r="B2" s="58"/>
       <c r="C2" s="15" t="s">
@@ -1687,13 +1693,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>38.5</v>
+        <v>48.5</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -1702,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="57"/>
       <c r="C4" s="59" t="s">
@@ -1710,13 +1716,13 @@
       </c>
       <c r="D4" s="60"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
       <c r="B5" s="58"/>
       <c r="C5" s="61"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1748,7 @@
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1759,7 @@
       <c r="C8" s="31"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1764,7 +1770,7 @@
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +1781,7 @@
       <c r="C10" s="31"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1786,13 +1792,13 @@
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
@@ -1801,18 +1807,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>58</v>
       </c>
@@ -1823,7 +1829,7 @@
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>59</v>
       </c>
@@ -1834,7 +1840,7 @@
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>60</v>
       </c>
@@ -1845,7 +1851,7 @@
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>61</v>
       </c>
@@ -1871,7 +1877,7 @@
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>62</v>
       </c>
@@ -1882,7 +1888,7 @@
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>63</v>
       </c>
@@ -1893,7 +1899,7 @@
       <c r="C20" s="31"/>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>64</v>
       </c>
@@ -1904,7 +1910,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>67</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>68</v>
       </c>
@@ -1930,7 +1936,7 @@
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>69</v>
       </c>
@@ -1941,7 +1947,7 @@
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>70</v>
       </c>
@@ -1952,7 +1958,7 @@
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>71</v>
       </c>
@@ -1978,7 +1984,7 @@
       <c r="C27" s="31"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>72</v>
       </c>
@@ -1989,7 +1995,7 @@
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>73</v>
       </c>
@@ -2000,7 +2006,7 @@
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>74</v>
       </c>
@@ -2011,7 +2017,7 @@
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>75</v>
       </c>
@@ -2022,7 +2028,7 @@
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>76</v>
       </c>
@@ -2033,15 +2039,15 @@
       <c r="C32" s="45"/>
       <c r="D32" s="28"/>
     </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1"/>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="40"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1">
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53" t="s">
         <v>30</v>
       </c>
@@ -2051,27 +2057,27 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="41">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="50"/>
       <c r="D37" s="39">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!I13,'Testing &amp; Abschluss'!I15)</f>
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -2102,18 +2108,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="26"/>
+    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2368,10 +2374,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2380,7 +2386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="34" t="s">
         <v>28</v>
@@ -2390,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>6</v>
@@ -2400,7 +2406,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="H15" s="34" t="s">
         <v>29</v>
@@ -2410,15 +2416,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2452,22 +2458,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2519,10 +2525,10 @@
       <c r="I2" s="70"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2631,10 +2637,10 @@
       <c r="I6" s="68"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2694,11 +2700,45 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
-      <c r="D11" s="1"/>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41316</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41316</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="H11" s="6" t="s">
         <v>5</v>
       </c>
@@ -2706,7 +2746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2716,186 +2756,186 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="H14" s="33" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="33">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2916,6 +2956,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2932,19 +2973,19 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="46"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="10.85546875" style="46"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2971,7 +3012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2999,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -3055,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -3083,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3108,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -3125,7 +3166,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3142,7 +3183,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -3162,7 +3203,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3182,7 +3223,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3208,7 +3249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3235,7 +3276,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -3262,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -3289,7 +3330,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3309,7 +3350,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3329,7 +3370,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3349,7 +3390,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3369,7 +3410,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3389,7 +3430,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3409,7 +3450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3429,7 +3470,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3449,7 +3490,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3469,7 +3510,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3489,7 +3530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -3509,7 +3550,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3529,7 +3570,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -3549,7 +3590,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -3569,121 +3610,121 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3720,19 +3761,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3759,7 +3800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -3787,7 +3828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3815,7 +3856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -3843,7 +3884,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3871,7 +3912,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -3891,7 +3932,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3911,7 +3952,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3931,7 +3972,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3951,7 +3992,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -3977,7 +4018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -4004,7 +4045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -4031,7 +4072,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -4058,7 +4099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -4078,7 +4119,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -4098,7 +4139,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -4122,357 +4163,357 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1">
+    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1">
+    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1">
+    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1">
+    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1">
+    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1">
+    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1">
+    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1">
+    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1">
+    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1">
+    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1">
+    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1">
+    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1">
+    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1">
+    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1">
+    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1">
+    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -4513,19 +4554,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="45.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="3"/>
+    <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -4552,7 +4593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="H2" s="69" t="s">
         <v>47</v>
@@ -4563,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="H3" s="67" t="s">
         <v>48</v>
@@ -4574,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="H4" s="67" t="s">
         <v>49</v>
@@ -4585,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>50</v>
@@ -4596,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="H6" s="71" t="s">
         <v>51</v>
@@ -4607,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="H7" s="73" t="s">
         <v>52</v>
@@ -4618,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="H8" s="63" t="s">
         <v>16</v>
@@ -4629,16 +4670,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -4646,7 +4687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="34" t="s">
         <v>28</v>
       </c>
@@ -4655,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
@@ -4664,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="33" t="s">
         <v>29</v>
       </c>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1087,12 +1087,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="84070784"/>
-        <c:axId val="84072320"/>
+        <c:axId val="176767744"/>
+        <c:axId val="176769280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="84070784"/>
+        <c:axId val="176767744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1101,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84072320"/>
+        <c:crossAx val="176769280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1109,7 +1109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84072320"/>
+        <c:axId val="176769280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1125,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84070784"/>
+        <c:crossAx val="176767744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1258,12 +1258,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="92170112"/>
-        <c:axId val="92171648"/>
+        <c:axId val="176781568"/>
+        <c:axId val="176783360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="92170112"/>
+        <c:axId val="176781568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92171648"/>
+        <c:crossAx val="176783360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1280,7 +1280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92171648"/>
+        <c:axId val="176783360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92170112"/>
+        <c:crossAx val="176781568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>48.5</v>
+        <v>38.5</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
@@ -2459,7 +2459,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,7 +2525,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
       <c r="I6" s="68"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2701,44 +2701,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="1">
-        <v>41316</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="1">
-        <v>41316</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="H11" s="6" t="s">
         <v>5</v>
       </c>
@@ -2763,7 +2729,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2773,7 +2739,7 @@
       </c>
       <c r="I14" s="33">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3758,7 +3724,7 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A17" sqref="A17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4069,7 +4035,7 @@
       </c>
       <c r="I12" s="41">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4096,7 +4062,7 @@
       </c>
       <c r="I13" s="39">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4163,112 +4129,146 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41316</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41316</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
@@ -4528,12 +4528,18 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17:A22 A49:A1048576 A41:A46 A29:A39 A24:A26 A2:A15">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A15 A49:A1048576 A41:A46 A29:A39 A24:A26 A19:A22">
       <formula1>$H$11:$H$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B1048576 B24:B26 B28:B38 B40:B45 B1:B22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B1048576 B24:B26 B28:B38 B40:B45 B1:B16 B19:B22">
       <formula1>$H$2:$H$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B18">
+      <formula1>$H$2:$H$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17:A18">
+      <formula1>$H$12:$H$14</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="-15" windowWidth="10275" windowHeight="8325" activeTab="2"/>
+    <workbookView xWindow="10248" yWindow="-12" windowWidth="10272" windowHeight="8328" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="169">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -513,6 +513,24 @@
   </si>
   <si>
     <t>Kommunikation funktioniert</t>
+  </si>
+  <si>
+    <t>Testing-Protokoll erstellen</t>
+  </si>
+  <si>
+    <t>Testing-Protokoll</t>
+  </si>
+  <si>
+    <t>SMS-Gateway einrichten</t>
+  </si>
+  <si>
+    <t>SMS-Gateway eingerichtet und für HTTP-GET konfiguriert</t>
+  </si>
+  <si>
+    <t>Programmatisches senden von SMS ermöglichen</t>
+  </si>
+  <si>
+    <t>Programmatisches Senden von SMS</t>
   </si>
 </sst>
 </file>
@@ -1087,12 +1105,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="176767744"/>
-        <c:axId val="176769280"/>
+        <c:axId val="38021376"/>
+        <c:axId val="38031360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="176767744"/>
+        <c:axId val="38021376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1119,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176769280"/>
+        <c:crossAx val="38031360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1109,7 +1127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176769280"/>
+        <c:axId val="38031360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1143,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176767744"/>
+        <c:crossAx val="38021376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,10 +1257,10 @@
                   <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.5</c:v>
+                  <c:v>71.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,12 +1276,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="176781568"/>
-        <c:axId val="176783360"/>
+        <c:axId val="38064128"/>
+        <c:axId val="38065664"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="176781568"/>
+        <c:axId val="38064128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176783360"/>
+        <c:crossAx val="38065664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1280,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176783360"/>
+        <c:axId val="38065664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176781568"/>
+        <c:crossAx val="38064128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,16 +1681,16 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="55"/>
       <c r="B1" s="57" t="s">
         <v>24</v>
@@ -1683,7 +1701,7 @@
       <c r="D1" s="52"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="58"/>
       <c r="C2" s="15" t="s">
@@ -1708,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="57"/>
       <c r="C4" s="59" t="s">
@@ -1716,13 +1734,13 @@
       </c>
       <c r="D4" s="60"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="56"/>
       <c r="B5" s="58"/>
       <c r="C5" s="61"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1748,7 +1766,7 @@
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1759,7 +1777,7 @@
       <c r="C8" s="31"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1770,7 +1788,7 @@
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1792,7 +1810,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>65</v>
       </c>
@@ -1807,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>57</v>
       </c>
@@ -1818,7 +1836,7 @@
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>58</v>
       </c>
@@ -1829,7 +1847,7 @@
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>59</v>
       </c>
@@ -1851,7 +1869,7 @@
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
@@ -1866,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>61</v>
       </c>
@@ -1877,7 +1895,7 @@
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>62</v>
       </c>
@@ -1888,7 +1906,7 @@
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>63</v>
       </c>
@@ -1910,13 +1928,13 @@
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
-        <v>55.5</v>
+        <v>83.5</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -1925,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>68</v>
       </c>
@@ -1936,7 +1954,7 @@
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>69</v>
       </c>
@@ -1953,18 +1971,18 @@
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
-        <v>39.5</v>
+        <v>67.5</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="19">
         <f>'Testing &amp; Abschluss'!J8</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C26" s="29">
         <v>1</v>
@@ -1973,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>71</v>
       </c>
@@ -1984,7 +2002,7 @@
       <c r="C27" s="31"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>72</v>
       </c>
@@ -1995,7 +2013,7 @@
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>73</v>
       </c>
@@ -2006,18 +2024,18 @@
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="21">
         <f>'Testing &amp; Abschluss'!J5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
         <v>75</v>
       </c>
@@ -2028,7 +2046,7 @@
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
         <v>76</v>
       </c>
@@ -2057,14 +2075,14 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="41">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2074,7 +2092,7 @@
       <c r="C37" s="50"/>
       <c r="D37" s="39">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!I13,'Testing &amp; Abschluss'!I15)</f>
-        <v>53.5</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2108,15 +2126,15 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="26"/>
-    <col min="6" max="6" width="24.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2146,7 +2164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2174,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +2332,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2334,7 +2352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="34" t="s">
         <v>28</v>
@@ -2396,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>6</v>
@@ -2416,15 +2434,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2458,19 +2476,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2500,7 +2518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2528,7 +2546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2556,7 +2574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2640,7 +2658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2660,7 +2678,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2680,7 +2698,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2712,7 +2730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>28</v>
@@ -2722,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2742,166 +2760,166 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -2939,16 +2957,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="10.85546875" style="46"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3"/>
+    <col min="5" max="5" width="10.88671875" style="46"/>
+    <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2978,7 +2996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -3006,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3034,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -3062,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -3090,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3115,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -3132,7 +3150,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3149,7 +3167,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -3189,7 +3207,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3316,7 +3334,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3336,7 +3354,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3356,7 +3374,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3376,7 +3394,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3396,7 +3414,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3416,7 +3434,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3436,7 +3454,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3456,7 +3474,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3476,7 +3494,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3496,7 +3514,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -3516,7 +3534,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3536,7 +3554,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -3556,7 +3574,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -3576,121 +3594,121 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3724,19 +3742,19 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="6" max="6" width="30.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3766,7 +3784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -3794,7 +3812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3847,7 +3865,7 @@
       <c r="I4" s="67"/>
       <c r="J4" s="41">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>39.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3875,10 +3893,10 @@
       <c r="I5" s="68"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -3898,7 +3916,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3918,7 +3936,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -4011,7 +4029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -4035,10 +4053,10 @@
       </c>
       <c r="I12" s="41">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -4062,10 +4080,10 @@
       </c>
       <c r="I13" s="39">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -4085,7 +4103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -4105,7 +4123,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -4129,7 +4147,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -4153,7 +4171,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -4177,343 +4195,411 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41356</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41356</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41357</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41357</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -4543,7 +4629,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4556,23 +4642,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="3"/>
-    <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="6" max="6" width="45.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -4599,8 +4685,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41347</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="H2" s="69" t="s">
         <v>47</v>
       </c>
@@ -4610,8 +4713,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41347</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="H3" s="67" t="s">
         <v>48</v>
       </c>
@@ -4621,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="H4" s="67" t="s">
         <v>49</v>
@@ -4632,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>50</v>
@@ -4640,10 +4760,10 @@
       <c r="I5" s="67"/>
       <c r="J5" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="H6" s="71" t="s">
         <v>51</v>
@@ -4654,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="H7" s="73" t="s">
         <v>52</v>
@@ -4673,13 +4793,13 @@
       <c r="I8" s="68"/>
       <c r="J8" s="10">
         <f>SUM(J2:J7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4693,7 +4813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="H13" s="34" t="s">
         <v>28</v>
       </c>
@@ -4702,13 +4822,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="4">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4717,7 +4837,7 @@
       </c>
       <c r="I15" s="33">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4740,6 +4860,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10248" yWindow="-12" windowWidth="10272" windowHeight="8328" activeTab="5"/>
+    <workbookView xWindow="10248" yWindow="-12" windowWidth="10272" windowHeight="8328" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="173">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t>Programmatisches Senden von SMS</t>
+  </si>
+  <si>
+    <t>Aussehen der Performanceseite definiert</t>
+  </si>
+  <si>
+    <t>Newsfeed definiert</t>
+  </si>
+  <si>
+    <t>Performancedesign definiert</t>
+  </si>
+  <si>
+    <t>Newsfeed gefunden</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1029,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1105,12 +1116,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="38021376"/>
-        <c:axId val="38031360"/>
+        <c:axId val="62732544"/>
+        <c:axId val="62742528"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38021376"/>
+        <c:axId val="62732544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1130,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38031360"/>
+        <c:crossAx val="62742528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1127,7 +1138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38031360"/>
+        <c:axId val="62742528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1154,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38021376"/>
+        <c:crossAx val="62732544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,7 +1189,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1254,13 +1264,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>108.5</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.5</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,12 +1286,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="38064128"/>
-        <c:axId val="38065664"/>
+        <c:axId val="62771200"/>
+        <c:axId val="62772736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38064128"/>
+        <c:axId val="62771200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38065664"/>
+        <c:crossAx val="62772736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,7 +1308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38065664"/>
+        <c:axId val="62772736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38064128"/>
+        <c:crossAx val="62771200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,7 +2082,7 @@
       <c r="C35" s="54"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!I11,'Testing &amp; Abschluss'!I13)</f>
-        <v>108.5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
@@ -2082,7 +2092,7 @@
       <c r="C36" s="48"/>
       <c r="D36" s="41">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>59</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2092,7 +2102,7 @@
       <c r="C37" s="50"/>
       <c r="D37" s="39">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!I13,'Testing &amp; Abschluss'!I15)</f>
-        <v>71.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2953,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3257,7 +3267,7 @@
       </c>
       <c r="I12" s="37">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>91.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -3284,7 +3294,7 @@
       </c>
       <c r="I13" s="37">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3311,7 +3321,7 @@
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -3594,61 +3604,166 @@
         <v>147</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="1">
+        <v>41353</v>
+      </c>
+      <c r="E29" s="46">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41353</v>
+      </c>
+      <c r="E30" s="46">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41353</v>
+      </c>
+      <c r="E31" s="46">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41353</v>
+      </c>
+      <c r="E32" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41353</v>
+      </c>
+      <c r="E33" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="1">
+        <v>41353</v>
+      </c>
+      <c r="E34" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.3">
@@ -3721,10 +3836,10 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A30:A40 A42:A47 A2:A3 A5:A25 A26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A29:A40 A42:A47 A2:A3 A5:A26">
       <formula1>$H$12:$H$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B5:B28 B30:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B5:B1048576">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -4195,7 +4310,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -4219,7 +4334,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -4243,7 +4358,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -4267,7 +4382,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -4642,7 +4757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10248" yWindow="-12" windowWidth="10272" windowHeight="8328" activeTab="3"/>
+    <workbookView xWindow="10248" yWindow="-12" windowWidth="10272" windowHeight="8328" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="181">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -395,15 +395,9 @@
     <t>Grundstruktur fertiggestellt</t>
   </si>
   <si>
-    <t>Broker-Schnittstelle 50%</t>
-  </si>
-  <si>
     <t>Daten-Schnittstellen-Prototyp implementiert</t>
   </si>
   <si>
-    <t>Kauf-/Verkaufschnittstelle 50%</t>
-  </si>
-  <si>
     <t>Kauf-/Verkaufschnittstellen-Prototyp implementiert</t>
   </si>
   <si>
@@ -543,6 +537,36 @@
   </si>
   <si>
     <t>Newsfeed gefunden</t>
+  </si>
+  <si>
+    <t>Multi-Threading</t>
+  </si>
+  <si>
+    <t>Multi-Threading implementiert</t>
+  </si>
+  <si>
+    <t>WCF- und Historische-Datenanbindung</t>
+  </si>
+  <si>
+    <t>Real-Time-Datenanbindung implementiert</t>
+  </si>
+  <si>
+    <t>Orders absetzen und Bugfixes</t>
+  </si>
+  <si>
+    <t>WCF- und Historische-Datenanbindung implementiert</t>
+  </si>
+  <si>
+    <t>Real-Time-Datenanbindung</t>
+  </si>
+  <si>
+    <t>Absetzen von Orders ermöglicht</t>
+  </si>
+  <si>
+    <t>Broker-Schnittstelle 30%</t>
+  </si>
+  <si>
+    <t>Kauf-/Verkaufschnittstelle 30%</t>
   </si>
 </sst>
 </file>
@@ -1029,6 +1053,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1116,12 +1141,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="62732544"/>
-        <c:axId val="62742528"/>
+        <c:axId val="208811520"/>
+        <c:axId val="208813056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62732544"/>
+        <c:axId val="208811520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1155,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62742528"/>
+        <c:crossAx val="208813056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1138,7 +1163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62742528"/>
+        <c:axId val="208813056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1179,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62732544"/>
+        <c:crossAx val="208811520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1189,6 +1214,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1267,10 +1293,10 @@
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.5</c:v>
+                  <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,12 +1312,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="62771200"/>
-        <c:axId val="62772736"/>
+        <c:axId val="167472512"/>
+        <c:axId val="167478400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62771200"/>
+        <c:axId val="167472512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62772736"/>
+        <c:crossAx val="167478400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62772736"/>
+        <c:axId val="167478400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62771200"/>
+        <c:crossAx val="167472512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1691,7 +1717,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1727,7 +1753,7 @@
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>38.5</v>
+        <v>108.5</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -1826,7 +1852,7 @@
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
@@ -1841,7 +1867,7 @@
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
@@ -1863,7 +1889,7 @@
       </c>
       <c r="B15" s="24">
         <f>Software!J4</f>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
@@ -1874,7 +1900,7 @@
       </c>
       <c r="B16" s="24">
         <f>Software!J5</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
@@ -2092,7 +2118,7 @@
       <c r="C36" s="48"/>
       <c r="D36" s="41">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>61.5</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2102,7 +2128,7 @@
       <c r="C37" s="50"/>
       <c r="D37" s="39">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!I13,'Testing &amp; Abschluss'!I15)</f>
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2486,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2553,7 +2579,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2609,7 +2635,7 @@
       <c r="I4" s="72"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2620,7 +2646,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="9">
         <v>41271</v>
@@ -2629,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="H5" s="73" t="s">
         <v>39</v>
@@ -2637,7 +2663,7 @@
       <c r="I5" s="74"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2648,7 +2674,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1">
         <v>41276</v>
@@ -2657,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>16</v>
@@ -2665,7 +2691,7 @@
       <c r="I6" s="68"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2716,7 +2742,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" s="7">
         <v>41318</v>
@@ -2725,14 +2751,48 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41355</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41355</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="H11" s="6" t="s">
         <v>5</v>
       </c>
@@ -2741,7 +2801,24 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41356</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>28</v>
       </c>
@@ -2750,78 +2827,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41356</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41357</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="H14" s="33" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="33">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41357</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41358</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41358</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -2942,15 +3104,15 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A18:A23 A25:A27 A30:A40 A42:A47 A2:A16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A1048576 A25:A27 A30:A40 A42:A47 A2:A23">
       <formula1>$H$12:$H$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B23 B49:B1048576 B41:B46 B29:B39 B25:B27 B1:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:B1048576 B41:B46 B29:B39 B25:B27 B1:B23">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2963,7 +3125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -3512,7 +3674,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D24" s="1">
         <v>41303</v>
@@ -3521,7 +3683,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3532,7 +3694,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D25" s="1">
         <v>41322</v>
@@ -3541,7 +3703,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3552,7 +3714,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D26" s="1">
         <v>41326</v>
@@ -3561,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3572,7 +3734,7 @@
         <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D27" s="1">
         <v>41327</v>
@@ -3581,7 +3743,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3592,7 +3754,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D28" s="1">
         <v>41328</v>
@@ -3601,7 +3763,7 @@
         <v>7.5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3612,7 +3774,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="1">
         <v>41353</v>
@@ -3621,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -3632,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="1">
         <v>41353</v>
@@ -3641,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -3652,7 +3814,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D31" s="1">
         <v>41353</v>
@@ -3661,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3672,7 +3834,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" s="1">
         <v>41353</v>
@@ -3681,7 +3843,7 @@
         <v>0.5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3692,7 +3854,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D33" s="1">
         <v>41353</v>
@@ -3701,7 +3863,7 @@
         <v>0.5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3712,7 +3874,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D34" s="1">
         <v>41353</v>
@@ -3721,7 +3883,7 @@
         <v>0.5</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -3935,7 +4097,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="7">
         <v>41280</v>
@@ -3944,7 +4106,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H3" s="67" t="s">
         <v>45</v>
@@ -3963,7 +4125,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="8">
         <v>41281</v>
@@ -3972,7 +4134,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="67" t="s">
         <v>46</v>
@@ -3991,7 +4153,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="7">
         <v>41318</v>
@@ -4000,7 +4162,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>16</v>
@@ -4019,7 +4181,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="8">
         <v>41319</v>
@@ -4028,7 +4190,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -4039,7 +4201,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="8">
         <v>41319</v>
@@ -4048,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -4059,7 +4221,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" s="8">
         <v>41325</v>
@@ -4068,7 +4230,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4079,7 +4241,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1">
         <v>41325</v>
@@ -4088,7 +4250,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4099,7 +4261,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1">
         <v>41326</v>
@@ -4108,7 +4270,7 @@
         <v>4.5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>5</v>
@@ -4125,7 +4287,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="1">
         <v>41326</v>
@@ -4134,7 +4296,7 @@
         <v>4.5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>28</v>
@@ -4152,7 +4314,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1">
         <v>41340</v>
@@ -4161,7 +4323,7 @@
         <v>4.5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>6</v>
@@ -4179,7 +4341,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="1">
         <v>41340</v>
@@ -4188,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>29</v>
@@ -4206,7 +4368,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14" s="1">
         <v>41332</v>
@@ -4215,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4226,7 +4388,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="1">
         <v>41343</v>
@@ -4235,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4246,7 +4408,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D16" s="1">
         <v>41345</v>
@@ -4255,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -4270,7 +4432,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D17" s="1">
         <v>41316</v>
@@ -4279,7 +4441,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -4294,7 +4456,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D18" s="1">
         <v>41316</v>
@@ -4303,7 +4465,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -4318,7 +4480,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1">
         <v>41356</v>
@@ -4327,7 +4489,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -4342,7 +4504,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1">
         <v>41356</v>
@@ -4351,7 +4513,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -4366,7 +4528,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D21" s="1">
         <v>41357</v>
@@ -4375,7 +4537,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -4390,7 +4552,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D22" s="1">
         <v>41357</v>
@@ -4399,7 +4561,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -4808,7 +4970,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1">
         <v>41347</v>
@@ -4817,7 +4979,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H2" s="69" t="s">
         <v>47</v>
@@ -4836,7 +4998,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="1">
         <v>41347</v>
@@ -4845,7 +5007,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H3" s="67" t="s">
         <v>48</v>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10248" yWindow="-12" windowWidth="10272" windowHeight="8328" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="185">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -567,6 +567,18 @@
   </si>
   <si>
     <t>Kauf-/Verkaufschnittstelle 30%</t>
+  </si>
+  <si>
+    <t>Trigger für Performance</t>
+  </si>
+  <si>
+    <t>Trigger für Performance (realised, unrealised), Investment</t>
+  </si>
+  <si>
+    <t>Trigger 40%</t>
+  </si>
+  <si>
+    <t>Trigger 80%</t>
   </si>
 </sst>
 </file>
@@ -992,20 +1004,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1026,7 +1038,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1053,7 +1065,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1122,10 +1133,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,12 +1152,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="208811520"/>
-        <c:axId val="208813056"/>
+        <c:axId val="2081626856"/>
+        <c:axId val="2081624056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="208811520"/>
+        <c:axId val="2081626856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1166,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208813056"/>
+        <c:crossAx val="2081624056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208813056"/>
+        <c:axId val="2081624056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1190,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208811520"/>
+        <c:crossAx val="2081626856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1193,7 +1204,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1202,7 +1213,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1214,7 +1225,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1290,13 +1300,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>111</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,12 +1322,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="167472512"/>
-        <c:axId val="167478400"/>
+        <c:axId val="2137370056"/>
+        <c:axId val="2053202168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="167472512"/>
+        <c:axId val="2137370056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167478400"/>
+        <c:crossAx val="2053202168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +1344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167478400"/>
+        <c:axId val="2053202168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167472512"/>
+        <c:crossAx val="2137370056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,7 +1366,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1720,13 +1730,13 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="55"/>
       <c r="B1" s="57" t="s">
         <v>24</v>
@@ -1737,7 +1747,7 @@
       <c r="D1" s="52"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="A2" s="56"/>
       <c r="B2" s="58"/>
       <c r="C2" s="15" t="s">
@@ -1747,7 +1757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -1762,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="52"/>
       <c r="B4" s="57"/>
       <c r="C4" s="59" t="s">
@@ -1770,13 +1780,13 @@
       </c>
       <c r="D4" s="60"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="56"/>
       <c r="B5" s="58"/>
       <c r="C5" s="61"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1791,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1802,7 +1812,7 @@
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1813,7 +1823,7 @@
       <c r="C8" s="31"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1824,7 +1834,7 @@
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1835,7 +1845,7 @@
       <c r="C10" s="31"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
@@ -1846,7 +1856,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="44" t="s">
         <v>65</v>
       </c>
@@ -1861,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="42" t="s">
         <v>57</v>
       </c>
@@ -1872,7 +1882,7 @@
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="42" t="s">
         <v>58</v>
       </c>
@@ -1883,7 +1893,7 @@
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="42" t="s">
         <v>59</v>
       </c>
@@ -1894,7 +1904,7 @@
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="A16" s="42" t="s">
         <v>60</v>
       </c>
@@ -1905,7 +1915,7 @@
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
@@ -1920,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="42" t="s">
         <v>61</v>
       </c>
@@ -1931,7 +1941,7 @@
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="42" t="s">
         <v>62</v>
       </c>
@@ -1942,7 +1952,7 @@
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="42" t="s">
         <v>63</v>
       </c>
@@ -1953,7 +1963,7 @@
       <c r="C20" s="31"/>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="43" t="s">
         <v>64</v>
       </c>
@@ -1964,13 +1974,13 @@
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="44" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
-        <v>83.5</v>
+        <v>99.5</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -1979,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="42" t="s">
         <v>68</v>
       </c>
@@ -1990,18 +2000,18 @@
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="24">
         <f>Schnittstellen!J3</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1">
       <c r="A25" s="42" t="s">
         <v>70</v>
       </c>
@@ -2012,7 +2022,7 @@
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
@@ -2027,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="42" t="s">
         <v>71</v>
       </c>
@@ -2038,7 +2048,7 @@
       <c r="C27" s="31"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="42" t="s">
         <v>72</v>
       </c>
@@ -2049,7 +2059,7 @@
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="42" t="s">
         <v>73</v>
       </c>
@@ -2060,7 +2070,7 @@
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="42" t="s">
         <v>74</v>
       </c>
@@ -2071,7 +2081,7 @@
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="42" t="s">
         <v>75</v>
       </c>
@@ -2082,7 +2092,7 @@
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" thickBot="1">
       <c r="A32" s="43" t="s">
         <v>76</v>
       </c>
@@ -2093,25 +2103,25 @@
       <c r="C32" s="45"/>
       <c r="D32" s="28"/>
     </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="15" thickBot="1"/>
+    <row r="34" spans="2:4" ht="15" thickBot="1">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="40"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="15" customHeight="1">
       <c r="B35" s="53" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="54"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!I11,'Testing &amp; Abschluss'!I13)</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="47" t="s">
         <v>15</v>
       </c>
@@ -2121,7 +2131,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="15" thickBot="1">
       <c r="B37" s="49" t="s">
         <v>31</v>
       </c>
@@ -2131,7 +2141,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -2162,18 +2172,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="26"/>
-    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="26"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -2200,7 +2210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2228,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2256,7 +2266,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2312,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2340,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2368,7 +2378,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2388,7 +2398,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2408,7 +2418,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2428,10 +2438,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="D12" s="1"/>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2440,7 +2450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="1"/>
       <c r="H13" s="34" t="s">
         <v>28</v>
@@ -2450,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="1"/>
       <c r="H14" s="34" t="s">
         <v>6</v>
@@ -2460,7 +2470,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="D15" s="1"/>
       <c r="H15" s="34" t="s">
         <v>29</v>
@@ -2470,15 +2480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="1"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2512,22 +2522,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2554,7 +2564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2582,7 +2592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2638,7 +2648,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +2676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2694,7 +2704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2714,7 +2724,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2734,7 +2744,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2754,7 +2764,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2774,7 +2784,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -2800,7 +2810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -2854,7 +2864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -2881,7 +2891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2901,7 +2911,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +2931,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -2941,157 +2951,157 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3112,7 +3122,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3125,23 +3134,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="46"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="10.83203125" style="46"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -3196,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3224,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -3252,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -3280,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3305,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -3322,7 +3331,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3339,7 +3348,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -3359,7 +3368,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3405,7 +3414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3432,7 +3441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -3459,7 +3468,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -3486,7 +3495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3506,7 +3515,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3546,7 +3555,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3566,7 +3575,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3586,7 +3595,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3626,7 +3635,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3646,7 +3655,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3666,7 +3675,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3686,7 +3695,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -3706,7 +3715,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3726,7 +3735,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -3746,7 +3755,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3786,7 +3795,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -3826,7 +3835,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -3866,7 +3875,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -3886,106 +3895,106 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -4018,23 +4027,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="3"/>
-    <col min="6" max="6" width="30.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -4089,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -4114,10 +4123,10 @@
       <c r="I3" s="67"/>
       <c r="J3" s="41">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -4145,7 +4154,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -4170,10 +4179,10 @@
       <c r="I5" s="68"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4213,7 +4222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -4233,7 +4242,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -4279,7 +4288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -4303,10 +4312,10 @@
       </c>
       <c r="I11" s="41">
         <f>SUMIF(A:A,H11,E:E)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -4360,7 +4369,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -4380,7 +4389,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -4400,7 +4409,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -4424,7 +4433,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -4448,7 +4457,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -4472,7 +4481,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -4496,7 +4505,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -4520,7 +4529,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -4544,7 +4553,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -4568,315 +4577,349 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
+    <row r="23" spans="1:10" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41334</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
+    <row r="24" spans="1:10" s="3" customFormat="1">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41335</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="3" customFormat="1">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="3" customFormat="1">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="3" customFormat="1">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="3" customFormat="1">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="3" customFormat="1">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="3" customFormat="1">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="3" customFormat="1">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="3" customFormat="1">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:10" s="3" customFormat="1">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:10" s="3" customFormat="1">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:10" s="3" customFormat="1">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:10" s="3" customFormat="1">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:10" s="3" customFormat="1">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:10" s="3" customFormat="1">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:10" s="3" customFormat="1">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:10" s="3" customFormat="1">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:10" s="3" customFormat="1">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:10" s="3" customFormat="1">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:10" s="3" customFormat="1">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:10" s="3" customFormat="1">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:10" s="3" customFormat="1">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:10" s="3" customFormat="1">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:10" s="3" customFormat="1">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:10" s="3" customFormat="1">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:10" s="3" customFormat="1">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:10" s="3" customFormat="1">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:10" s="3" customFormat="1">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:10" s="3" customFormat="1">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:10" s="3" customFormat="1">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:10" s="3" customFormat="1">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:10" s="3" customFormat="1">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:10" s="3" customFormat="1">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:10" s="3" customFormat="1">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:10" s="3" customFormat="1">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:10" s="3" customFormat="1">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:10" s="3" customFormat="1">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:10" s="3" customFormat="1">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:10" s="3" customFormat="1">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:10" s="3" customFormat="1">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:10" s="3" customFormat="1">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:10" s="3" customFormat="1">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:10" s="3" customFormat="1">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:10" s="3" customFormat="1">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -4906,7 +4949,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4923,19 +4965,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
     <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="3"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="45.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -4962,7 +5004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -4990,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -5018,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="D4" s="1"/>
       <c r="H4" s="67" t="s">
         <v>49</v>
@@ -5029,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="D5" s="1"/>
       <c r="H5" s="67" t="s">
         <v>50</v>
@@ -5040,7 +5082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="D6" s="1"/>
       <c r="H6" s="71" t="s">
         <v>51</v>
@@ -5051,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="D7" s="1"/>
       <c r="H7" s="73" t="s">
         <v>52</v>
@@ -5062,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="D8" s="1"/>
       <c r="H8" s="63" t="s">
         <v>16</v>
@@ -5073,16 +5115,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -5090,7 +5132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="H13" s="34" t="s">
         <v>28</v>
       </c>
@@ -5099,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
@@ -5108,7 +5150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="H15" s="33" t="s">
         <v>29</v>
       </c>
@@ -5137,7 +5179,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="191">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -579,6 +579,24 @@
   </si>
   <si>
     <t>Trigger 80%</t>
+  </si>
+  <si>
+    <t>Kickoff</t>
+  </si>
+  <si>
+    <t>Projektstart durchgeführt</t>
+  </si>
+  <si>
+    <t>Projekthandbuch</t>
+  </si>
+  <si>
+    <t>Bugfixes</t>
+  </si>
+  <si>
+    <t>Bugs gefixed</t>
+  </si>
+  <si>
+    <t>Testing-Protokoll, Systemtest</t>
   </si>
 </sst>
 </file>
@@ -851,8 +869,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1003,7 +1023,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1011,6 +1031,7 @@
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1018,6 +1039,7 @@
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1065,6 +1087,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1152,12 +1175,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2081626856"/>
-        <c:axId val="2081624056"/>
+        <c:axId val="2091178552"/>
+        <c:axId val="2091181368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2081626856"/>
+        <c:axId val="2091178552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1189,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081624056"/>
+        <c:crossAx val="2091181368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1174,7 +1197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081624056"/>
+        <c:axId val="2091181368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1213,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081626856"/>
+        <c:crossAx val="2091178552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1225,6 +1248,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1300,13 +1324,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>127.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.5</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,12 +1346,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2137370056"/>
-        <c:axId val="2053202168"/>
+        <c:axId val="2091254312"/>
+        <c:axId val="2091257224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2137370056"/>
+        <c:axId val="2091254312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,7 +1360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053202168"/>
+        <c:crossAx val="2091257224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1344,7 +1368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2053202168"/>
+        <c:axId val="2091257224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,7 +1379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137370056"/>
+        <c:crossAx val="2091254312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1726,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1763,7 +1787,7 @@
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>108.5</v>
+        <v>129.5</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -1792,7 +1816,7 @@
       </c>
       <c r="B6" s="19">
         <f>Projektmanagement!J7</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="C6" s="29">
         <v>1</v>
@@ -1807,7 +1831,7 @@
       </c>
       <c r="B7" s="21">
         <f>Projektmanagement!J2</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
@@ -1829,7 +1853,7 @@
       </c>
       <c r="B9" s="21">
         <f>Projektmanagement!J4</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -1862,7 +1886,7 @@
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
@@ -1910,7 +1934,7 @@
       </c>
       <c r="B16" s="24">
         <f>Software!J5</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
@@ -2118,7 +2142,7 @@
       <c r="C35" s="54"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!I11,'Testing &amp; Abschluss'!I13)</f>
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -2128,7 +2152,7 @@
       <c r="C36" s="48"/>
       <c r="D36" s="41">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>96.5</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" thickBot="1">
@@ -2138,7 +2162,7 @@
       <c r="C37" s="50"/>
       <c r="D37" s="39">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!I13,'Testing &amp; Abschluss'!I15)</f>
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
@@ -2169,7 +2193,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2235,7 +2259,7 @@
       <c r="I2" s="67"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2291,7 +2315,7 @@
       <c r="I4" s="67"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2375,7 +2399,7 @@
       <c r="I7" s="64"/>
       <c r="J7" s="10">
         <f>SUM(J2:J6)</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2439,10 +2463,44 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1">
-      <c r="D11" s="1"/>
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41227</v>
+      </c>
+      <c r="E11" s="26">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1">
-      <c r="D12" s="1"/>
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41227</v>
+      </c>
+      <c r="E12" s="26">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -2451,23 +2509,57 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="D13" s="1"/>
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41227</v>
+      </c>
+      <c r="E13" s="26">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="H13" s="34" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="D14" s="1"/>
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41008</v>
+      </c>
+      <c r="E14" s="26">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="4">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>7.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -2477,7 +2569,7 @@
       </c>
       <c r="I15" s="4">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2502,7 +2594,7 @@
     <mergeCell ref="H5:I5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B1048576 B1:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>$H$2:$H$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
@@ -2510,6 +2602,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2523,7 +2616,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2673,7 +2766,7 @@
       <c r="I5" s="74"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
@@ -2701,7 +2794,7 @@
       <c r="I6" s="68"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2888,7 +2981,7 @@
       </c>
       <c r="I14" s="33">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2952,7 +3045,24 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="D18" s="1"/>
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41366</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="D19" s="1"/>
@@ -3134,7 +3244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -4027,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4961,8 +5071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5049,7 +5159,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="H3" s="67" t="s">
         <v>48</v>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtstatus" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Schnittstellen" sheetId="7" r:id="rId5"/>
     <sheet name="Testing &amp; Abschluss" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="191">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Testing &amp; Abschluss</t>
   </si>
   <si>
-    <t>Gesamtstatus NuTrade</t>
-  </si>
-  <si>
     <t>Gabriel Pawlowsky</t>
   </si>
   <si>
@@ -597,6 +594,9 @@
   </si>
   <si>
     <t>Testing-Protokoll, Systemtest</t>
+  </si>
+  <si>
+    <t>Gesamtstatus Aquila</t>
   </si>
 </sst>
 </file>
@@ -888,7 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -936,7 +936,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1024,22 +1023,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1060,7 +1059,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1156,10 +1155,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,12 +1174,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="2091178552"/>
-        <c:axId val="2091181368"/>
+        <c:axId val="37833344"/>
+        <c:axId val="37867904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2091178552"/>
+        <c:axId val="37833344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1188,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091181368"/>
+        <c:crossAx val="37867904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1197,7 +1196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091181368"/>
+        <c:axId val="37867904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1212,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2091178552"/>
+        <c:crossAx val="37833344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1227,7 +1226,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1236,7 +1235,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1324,13 +1323,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.5</c:v>
+                  <c:v>111.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118.0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,12 +1345,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2091254312"/>
-        <c:axId val="2091257224"/>
+        <c:axId val="38887808"/>
+        <c:axId val="38889344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2091254312"/>
+        <c:axId val="38887808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091257224"/>
+        <c:crossAx val="38889344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1368,7 +1367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091257224"/>
+        <c:axId val="38889344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091254312"/>
+        <c:crossAx val="38887808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,7 +1389,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.7" r="0.7" t="0.787401575" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1750,44 +1749,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="55"/>
-      <c r="B1" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="52"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="51"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58"/>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>129.5</v>
+        <v>242</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -1796,27 +1795,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="60"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-    </row>
-    <row r="6" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="59"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="55"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="19">
         <f>Projektmanagement!J7</f>
-        <v>22.5</v>
+        <v>28.5</v>
       </c>
       <c r="C6" s="29">
         <v>1</v>
@@ -1825,64 +1824,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="21">
         <f>Projektmanagement!J2</f>
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="21">
         <f>Projektmanagement!J3</f>
         <v>5.5</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="C8" s="31">
+        <v>1</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="21">
         <f>Projektmanagement!J4</f>
-        <v>8</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="C9" s="31">
+        <v>1</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="21">
         <f>Projektmanagement!J5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="23">
         <f>Projektmanagement!J6</f>
         <v>0</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
@@ -1895,57 +1914,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
         <v>38</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="C13" s="31">
+        <v>1</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="24">
         <f>Software!J3</f>
         <v>7</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="C14" s="31">
+        <v>1</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="24">
         <f>Software!J4</f>
         <v>36</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+      <c r="C15" s="31">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="24">
         <f>Software!J5</f>
         <v>26</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="31">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="19">
-        <f>Website!J8</f>
-        <v>0</v>
+        <f>Website!J6</f>
+        <v>106.5</v>
       </c>
       <c r="C17" s="29">
         <v>1</v>
@@ -1954,53 +1989,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="24">
         <f>Website!J2</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-    </row>
-    <row r="19" spans="1:4">
+        <v>21.5</v>
+      </c>
+      <c r="C18" s="31">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="24">
         <f>Website!J3</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-    </row>
-    <row r="20" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="24">
         <f>Website!J4</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+        <v>6.5</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="D20" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="24">
         <f>Website!J5</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4">
+        <v>72.5</v>
+      </c>
+      <c r="C21" s="31">
+        <v>1</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
@@ -2013,40 +2064,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="24">
         <f>Schnittstellen!J2</f>
         <v>4</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="C23" s="31">
+        <v>1</v>
+      </c>
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="24">
         <f>Schnittstellen!J3</f>
         <v>28</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1">
+      <c r="C24" s="31">
+        <v>1</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
         <v>67.5</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="C25" s="31">
+        <v>1</v>
+      </c>
+      <c r="D25" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
@@ -2061,111 +2124,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="21">
         <f>'Testing &amp; Abschluss'!J2</f>
         <v>0</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="C27" s="31">
+        <v>1</v>
+      </c>
+      <c r="D27" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="21">
         <f>'Testing &amp; Abschluss'!J3</f>
         <v>0</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="C28" s="31">
+        <v>1</v>
+      </c>
+      <c r="D28" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="21">
         <f>'Testing &amp; Abschluss'!J4</f>
         <v>0</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="C29" s="31">
+        <v>1</v>
+      </c>
+      <c r="D29" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="21">
         <f>'Testing &amp; Abschluss'!J5</f>
         <v>8</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="C30" s="31">
+        <v>1</v>
+      </c>
+      <c r="D30" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="21">
         <f>'Testing &amp; Abschluss'!J6</f>
         <v>0</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+      <c r="C31" s="31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="23">
         <f>'Testing &amp; Abschluss'!J7</f>
         <v>0</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1"/>
-    <row r="34" spans="2:4" ht="15" thickBot="1">
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
+      <c r="D32" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="40"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1">
-      <c r="B35" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="54"/>
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="53"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!I11,'Testing &amp; Abschluss'!I13)</f>
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="48"/>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="47"/>
       <c r="D36" s="41">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>105.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1">
-      <c r="B37" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="50"/>
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="49"/>
       <c r="D37" s="39">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!I13,'Testing &amp; Abschluss'!I15)</f>
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B36:C36"/>
@@ -2179,7 +2266,8 @@
     <mergeCell ref="C4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2193,23 +2281,23 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="71.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="26"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3"/>
+    <col min="5" max="5" width="10.77734375" style="26"/>
+    <col min="6" max="6" width="24.44140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2226,15 +2314,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="66"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2242,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
         <v>41227</v>
@@ -2251,26 +2339,26 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="67"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1">
         <v>41231</v>
@@ -2279,18 +2367,18 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="67"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2298,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1">
         <v>41234</v>
@@ -2307,18 +2395,18 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="67"/>
+        <v>78</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="66"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2414,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
         <v>41248</v>
@@ -2335,18 +2423,18 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="67"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2354,7 +2442,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1">
         <v>41262</v>
@@ -2363,18 +2451,18 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="65"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="5">
         <f>SUMIF(B:B,H6,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2382,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1">
         <v>41290</v>
@@ -2391,18 +2479,18 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="64"/>
+        <v>78</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="63"/>
       <c r="J7" s="10">
         <f>SUM(J2:J6)</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2410,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1">
         <v>41304</v>
@@ -2419,10 +2507,10 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2430,7 +2518,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1">
         <v>41325</v>
@@ -2439,10 +2527,10 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2450,7 +2538,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1">
         <v>41340</v>
@@ -2459,18 +2547,18 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="1">
         <v>41227</v>
@@ -2479,10 +2567,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2490,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" s="1">
         <v>41227</v>
@@ -2499,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2508,15 +2596,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="1">
         <v>41227</v>
@@ -2525,62 +2613,79 @@
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="1">
-        <v>41008</v>
+        <v>41244</v>
       </c>
       <c r="E14" s="26">
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="4">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
-      <c r="D15" s="1"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41244</v>
+      </c>
+      <c r="E15" s="26">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="H15" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="4">
         <f>SUMIF(A:A,H15,E:E)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2602,7 +2707,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2619,20 +2724,20 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" style="3"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2649,23 +2754,23 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="66"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="7">
         <v>41227</v>
@@ -2674,26 +2779,26 @@
         <v>4.5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="70"/>
+        <v>55</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="69"/>
       <c r="J2" s="4">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1">
         <v>41241</v>
@@ -2702,26 +2807,26 @@
         <v>4.5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="72"/>
+        <v>80</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="71"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="9">
         <v>41269</v>
@@ -2730,26 +2835,26 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="72"/>
+        <v>121</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="71"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="9">
         <v>41271</v>
@@ -2758,26 +2863,26 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="74"/>
+        <v>178</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="73"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1">
         <v>41276</v>
@@ -2786,26 +2891,26 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="68"/>
+        <v>179</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="67"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="8">
         <v>41278</v>
@@ -2814,18 +2919,18 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1">
         <v>41278</v>
@@ -2834,18 +2939,18 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="7">
         <v>41318</v>
@@ -2854,18 +2959,18 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1">
         <v>41355</v>
@@ -2874,18 +2979,18 @@
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D11" s="1">
         <v>41355</v>
@@ -2894,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -2903,15 +3008,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="1">
         <v>41356</v>
@@ -2920,25 +3025,25 @@
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="4">
         <f>SUMIF(A:A,H12,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D13" s="1">
         <v>41356</v>
@@ -2947,7 +3052,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -2957,15 +3062,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1">
         <v>41357</v>
@@ -2974,25 +3079,25 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="33">
         <f>SUMIF(A:A,H14,E:E)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="1">
         <v>41357</v>
@@ -3001,18 +3106,18 @@
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1">
         <v>41358</v>
@@ -3021,18 +3126,18 @@
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="1">
         <v>41358</v>
@@ -3041,18 +3146,18 @@
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="1">
         <v>41366</v>
@@ -3061,157 +3166,157 @@
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -3244,25 +3349,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="46"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3"/>
+    <col min="5" max="5" width="10.77734375" style="45"/>
     <col min="6" max="6" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3273,249 +3378,249 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="66"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="7">
         <v>41227</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="70"/>
+        <v>77</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="69"/>
       <c r="J2" s="37">
-        <f>SUMIF(B:B,Gesamtstatus!A18,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <f>SUMIF(B:B,H2,E:E)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7">
         <v>41234</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="72"/>
+        <v>81</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="71"/>
       <c r="J3" s="37">
-        <f>SUMIF(B:B,Gesamtstatus!A19,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <f>SUMIF(B:B,H3,E:E)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1">
         <v>41238</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="72"/>
+        <v>82</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="71"/>
       <c r="J4" s="37">
-        <f>SUMIF(B:B,Gesamtstatus!A20,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+        <f>SUMIF(B:B,H4,E:E)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8">
         <v>41241</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>4.5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="74"/>
+        <v>83</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="73"/>
       <c r="J5" s="37">
-        <f>SUMIF(B:B,Gesamtstatus!A21,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
+        <f>SUMIF(B:B,H5,E:E)</f>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1">
         <v>41248</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>2.5</v>
       </c>
-      <c r="H6" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="68"/>
+      <c r="H6" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="67"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1">
         <v>41248</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1">
         <v>41255</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7">
         <v>41261</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
         <v>41261</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D11" s="1">
         <v>41262</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>5</v>
@@ -3524,51 +3629,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1">
         <v>41270</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="37">
         <f>SUMIF(A:A,H12,E:E)</f>
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="1">
         <v>41271</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>6</v>
@@ -3578,533 +3683,533 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1">
         <v>41274</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="35">
         <f>SUMIF(A:A,H14,E:E)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1">
         <v>40912</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1">
         <v>40913</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1">
         <v>41283</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="45">
         <v>4.5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1">
         <v>41284</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="45">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="1">
         <v>41284</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="45">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1">
         <v>41290</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>1.5</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="1">
         <v>41298</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="45">
         <v>6</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="1">
         <v>41301</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="45">
         <v>6.5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1">
         <v>41302</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="45">
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="1">
         <v>41303</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="45">
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="1">
         <v>41322</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="45">
         <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="1">
         <v>41326</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="45">
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="1">
         <v>41327</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="45">
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D28" s="1">
         <v>41328</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="45">
         <v>7.5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="1">
         <v>41353</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="45">
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30" s="1">
         <v>41353</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="45">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="1">
         <v>41353</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="45">
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" s="1">
         <v>41353</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="45">
         <v>0.5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="1">
         <v>41353</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="45">
         <v>0.5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D34" s="1">
         <v>41353</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="45">
         <v>0.5</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
   </sheetData>
@@ -4138,24 +4243,24 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" style="3"/>
+    <col min="6" max="6" width="30.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4172,23 +4277,23 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="66"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="7">
         <v>41278</v>
@@ -4197,26 +4302,26 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="67"/>
+        <v>109</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="66"/>
       <c r="J2" s="41">
         <f>SUMIF(B:B,H2,E:E)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="7">
         <v>41280</v>
@@ -4225,26 +4330,26 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="67"/>
+        <v>136</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="66"/>
       <c r="J3" s="41">
         <f>SUMIF(B:B,H3,E:E)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="8">
         <v>41281</v>
@@ -4253,26 +4358,26 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="67"/>
+        <v>135</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="66"/>
       <c r="J4" s="41">
         <f>SUMIF(B:B,H4,E:E)</f>
         <v>67.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7">
         <v>41318</v>
@@ -4281,26 +4386,26 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="68"/>
+        <v>128</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="67"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
         <v>99.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="8">
         <v>41319</v>
@@ -4309,18 +4414,18 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="8">
         <v>41319</v>
@@ -4329,18 +4434,18 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D8" s="8">
         <v>41325</v>
@@ -4349,18 +4454,18 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1">
         <v>41325</v>
@@ -4369,18 +4474,18 @@
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1">
         <v>41326</v>
@@ -4389,7 +4494,7 @@
         <v>4.5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>5</v>
@@ -4398,15 +4503,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1">
         <v>41326</v>
@@ -4415,25 +4520,25 @@
         <v>4.5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="41">
         <f>SUMIF(A:A,H11,E:E)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="1">
         <v>41340</v>
@@ -4442,7 +4547,7 @@
         <v>4.5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>6</v>
@@ -4452,15 +4557,15 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1">
         <v>41340</v>
@@ -4469,25 +4574,25 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="39">
         <f>SUMIF(A:A,H13,E:E)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="1">
         <v>41332</v>
@@ -4496,18 +4601,18 @@
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="1">
         <v>41343</v>
@@ -4516,18 +4621,18 @@
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1">
         <v>41345</v>
@@ -4536,22 +4641,22 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1">
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="1">
         <v>41316</v>
@@ -4560,22 +4665,22 @@
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1">
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="1">
         <v>41316</v>
@@ -4584,22 +4689,22 @@
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1">
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="1">
         <v>41356</v>
@@ -4608,22 +4713,22 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1">
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="1">
         <v>41356</v>
@@ -4632,22 +4737,22 @@
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1">
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" s="1">
         <v>41357</v>
@@ -4656,22 +4761,22 @@
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1">
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="1">
         <v>41357</v>
@@ -4680,22 +4785,22 @@
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1">
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="1">
         <v>41334</v>
@@ -4704,22 +4809,22 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1">
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D24" s="1">
         <v>41335</v>
@@ -4728,308 +4833,308 @@
         <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1">
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1">
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1">
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1">
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1">
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1">
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1">
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1">
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="4:10" s="3" customFormat="1">
+    <row r="33" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="4:10" s="3" customFormat="1">
+    <row r="34" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="4:10" s="3" customFormat="1">
+    <row r="35" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="4:10" s="3" customFormat="1">
+    <row r="36" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="4:10" s="3" customFormat="1">
+    <row r="37" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="4:10" s="3" customFormat="1">
+    <row r="38" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="4:10" s="3" customFormat="1">
+    <row r="39" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="4:10" s="3" customFormat="1">
+    <row r="40" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="4:10" s="3" customFormat="1">
+    <row r="41" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="4:10" s="3" customFormat="1">
+    <row r="42" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="4:10" s="3" customFormat="1">
+    <row r="43" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="4:10" s="3" customFormat="1">
+    <row r="44" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="4:10" s="3" customFormat="1">
+    <row r="45" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="4:10" s="3" customFormat="1">
+    <row r="46" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="4:10" s="3" customFormat="1">
+    <row r="47" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="4:10" s="3" customFormat="1">
+    <row r="48" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="4:10" s="3" customFormat="1">
+    <row r="49" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="4:10" s="3" customFormat="1">
+    <row r="50" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="4:10" s="3" customFormat="1">
+    <row r="51" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="4:10" s="3" customFormat="1">
+    <row r="52" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="4:10" s="3" customFormat="1">
+    <row r="53" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="4:10" s="3" customFormat="1">
+    <row r="54" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="4:10" s="3" customFormat="1">
+    <row r="55" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="4:10" s="3" customFormat="1">
+    <row r="56" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="4:10" s="3" customFormat="1">
+    <row r="57" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="4:10" s="3" customFormat="1">
+    <row r="58" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="4:10" s="3" customFormat="1">
+    <row r="59" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="4:10" s="3" customFormat="1">
+    <row r="60" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="4:10" s="3" customFormat="1">
+    <row r="61" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="4:10" s="3" customFormat="1">
+    <row r="62" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="4:10" s="3" customFormat="1">
+    <row r="63" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="4:10" s="3" customFormat="1">
+    <row r="64" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="4:10" s="3" customFormat="1">
+    <row r="65" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="4:10" s="3" customFormat="1">
+    <row r="66" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="4:10" s="3" customFormat="1">
+    <row r="67" spans="4:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -5071,25 +5176,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
     <col min="3" max="3" width="86.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="4" max="5" width="10.77734375" style="3"/>
     <col min="6" max="6" width="45.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -5106,23 +5211,23 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="66"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1">
         <v>41347</v>
@@ -5131,26 +5236,26 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="70"/>
+        <v>161</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="69"/>
       <c r="J2" s="4">
         <f t="shared" ref="J2:J7" si="0">SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1">
         <v>41347</v>
@@ -5159,82 +5264,82 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="67"/>
+        <v>189</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="66"/>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
-      <c r="H4" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="67"/>
+      <c r="H4" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="66"/>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="H5" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="67"/>
+      <c r="H5" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="66"/>
       <c r="J5" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
-      <c r="H6" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="75"/>
+      <c r="H6" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="74"/>
       <c r="J6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
-      <c r="H7" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="76"/>
+      <c r="H7" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="75"/>
       <c r="J7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="1"/>
-      <c r="H8" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="68"/>
+      <c r="H8" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="67"/>
       <c r="J8" s="10">
         <f>SUM(J2:J7)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H12" s="6" t="s">
         <v>5</v>
       </c>
@@ -5242,16 +5347,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H13" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
@@ -5260,9 +5365,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H15" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="33">
         <f>SUMIF(A:A,H15,E:E)</f>

--- a/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
+++ b/Dokumentation/Aquila_Zeitaufzeichnung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="201">
   <si>
     <t>Arbeitspaket</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Verantwortlicher</t>
   </si>
   <si>
-    <t>Arbeit am Projekthandbuch</t>
-  </si>
-  <si>
     <t>Erstversion des PHB</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>Abnahme durchführen</t>
   </si>
   <si>
-    <t>Arbeit an der Ersteinrichtung der Zeitaufzeichnungen</t>
-  </si>
-  <si>
     <t>Tabellen zur Zeitaufzeichnung</t>
   </si>
   <si>
@@ -597,6 +591,42 @@
   </si>
   <si>
     <t>Gesamtstatus Aquila</t>
+  </si>
+  <si>
+    <t>Ersteinrichtung der Zeitaufzeichnungen</t>
+  </si>
+  <si>
+    <t>WCF Zusatzfunktionalitäten implementieren</t>
+  </si>
+  <si>
+    <t>Zusatzfunktionalitäten implementiert</t>
+  </si>
+  <si>
+    <t>Abnahme vorbereiten</t>
+  </si>
+  <si>
+    <t>Dokumente zur Abnahme</t>
+  </si>
+  <si>
+    <t>Erstellen von Unit-Tests</t>
+  </si>
+  <si>
+    <t>Unit-Tests</t>
+  </si>
+  <si>
+    <t>Weiterführende Newsfeed-Recherche</t>
+  </si>
+  <si>
+    <t>Kenntnisse über Funktionsweise des Newsfeeds</t>
+  </si>
+  <si>
+    <t>Abschließende Fehlerbehebung in der WCF-Kommunikation</t>
+  </si>
+  <si>
+    <t>Abnahme</t>
+  </si>
+  <si>
+    <t>Aquila abgenommen</t>
   </si>
 </sst>
 </file>
@@ -1174,12 +1204,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="37833344"/>
-        <c:axId val="37867904"/>
+        <c:axId val="38816384"/>
+        <c:axId val="38842752"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="37833344"/>
+        <c:axId val="38816384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1218,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37867904"/>
+        <c:crossAx val="38842752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1196,7 +1226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37867904"/>
+        <c:axId val="38842752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +1242,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37833344"/>
+        <c:crossAx val="38816384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,13 +1353,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.5</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,12 +1375,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="38887808"/>
-        <c:axId val="38889344"/>
+        <c:axId val="38883712"/>
+        <c:axId val="38885248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="38887808"/>
+        <c:axId val="38883712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38889344"/>
+        <c:crossAx val="38885248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1367,7 +1397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38889344"/>
+        <c:axId val="38885248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38887808"/>
+        <c:crossAx val="38883712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1749,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1782,11 +1812,11 @@
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="10">
         <f>SUM(B6,B12,B17)</f>
-        <v>242</v>
+        <v>272.5</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -1815,7 +1845,7 @@
       </c>
       <c r="B6" s="19">
         <f>Projektmanagement!J7</f>
-        <v>28.5</v>
+        <v>38.5</v>
       </c>
       <c r="C6" s="29">
         <v>1</v>
@@ -1845,7 +1875,7 @@
       </c>
       <c r="B8" s="21">
         <f>Projektmanagement!J3</f>
-        <v>5.5</v>
+        <v>23.5</v>
       </c>
       <c r="C8" s="31">
         <v>1</v>
@@ -1860,7 +1890,7 @@
       </c>
       <c r="B9" s="21">
         <f>Projektmanagement!J4</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C9" s="31">
         <v>1</v>
@@ -1890,7 +1920,7 @@
       </c>
       <c r="B11" s="23">
         <f>Projektmanagement!J6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="31">
         <v>1</v>
@@ -1901,11 +1931,11 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="19">
         <f>Software!J6</f>
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
@@ -1916,7 +1946,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="24">
         <f>Software!J2</f>
@@ -1931,7 +1961,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="24">
         <f>Software!J3</f>
@@ -1946,11 +1976,11 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="24">
         <f>Software!J4</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C15" s="31">
         <v>1</v>
@@ -1961,11 +1991,11 @@
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="24">
         <f>Software!J5</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C16" s="31">
         <v>1</v>
@@ -1976,11 +2006,11 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="19">
         <f>Website!J6</f>
-        <v>106.5</v>
+        <v>111</v>
       </c>
       <c r="C17" s="29">
         <v>1</v>
@@ -1991,7 +2021,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="24">
         <f>Website!J2</f>
@@ -2006,7 +2036,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="24">
         <f>Website!J3</f>
@@ -2021,7 +2051,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="24">
         <f>Website!J4</f>
@@ -2036,11 +2066,11 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="24">
         <f>Website!J5</f>
-        <v>72.5</v>
+        <v>77</v>
       </c>
       <c r="C21" s="31">
         <v>1</v>
@@ -2051,11 +2081,11 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="19">
         <f>Schnittstellen!J5</f>
-        <v>99.5</v>
+        <v>106.5</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -2066,11 +2096,11 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="24">
         <f>Schnittstellen!J2</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C23" s="31">
         <v>1</v>
@@ -2081,7 +2111,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" s="24">
         <f>Schnittstellen!J3</f>
@@ -2096,7 +2126,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B25" s="24">
         <f>Schnittstellen!J4</f>
@@ -2115,7 +2145,7 @@
       </c>
       <c r="B26" s="19">
         <f>'Testing &amp; Abschluss'!J8</f>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C26" s="29">
         <v>1</v>
@@ -2126,7 +2156,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" s="21">
         <f>'Testing &amp; Abschluss'!J2</f>
@@ -2141,7 +2171,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="21">
         <f>'Testing &amp; Abschluss'!J3</f>
@@ -2156,11 +2186,11 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" s="21">
         <f>'Testing &amp; Abschluss'!J4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C29" s="31">
         <v>1</v>
@@ -2171,7 +2201,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="21">
         <f>'Testing &amp; Abschluss'!J5</f>
@@ -2186,11 +2216,11 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="21">
         <f>'Testing &amp; Abschluss'!J6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C31" s="31">
         <v>1</v>
@@ -2201,11 +2231,11 @@
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" s="23">
         <f>'Testing &amp; Abschluss'!J7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C32" s="27">
         <v>1</v>
@@ -2229,7 +2259,7 @@
       <c r="C35" s="53"/>
       <c r="D35" s="12">
         <f>SUM(Projektmanagement!I13,Software!I12,Website!I12,Schnittstellen!I11,'Testing &amp; Abschluss'!I13)</f>
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -2239,7 +2269,7 @@
       <c r="C36" s="47"/>
       <c r="D36" s="41">
         <f>SUM(Projektmanagement!I14,Software!I13,Website!I13,Schnittstellen!I12,'Testing &amp; Abschluss'!I14)</f>
-        <v>111.5</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2249,7 +2279,7 @@
       <c r="C37" s="49"/>
       <c r="D37" s="39">
         <f>SUM(Projektmanagement!I15,Software!I14,Website!I14,Schnittstellen!I13,'Testing &amp; Abschluss'!I15)</f>
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2281,7 +2311,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2330,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1">
         <v>41227</v>
@@ -2339,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="66" t="s">
         <v>7</v>
@@ -2355,10 +2385,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1">
         <v>41231</v>
@@ -2367,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3" s="66" t="s">
         <v>8</v>
@@ -2375,7 +2405,7 @@
       <c r="I3" s="66"/>
       <c r="J3" s="4">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>5.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2386,7 +2416,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1">
         <v>41234</v>
@@ -2395,15 +2425,15 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="66"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2414,7 +2444,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1">
         <v>41248</v>
@@ -2423,7 +2453,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5" s="66" t="s">
         <v>11</v>
@@ -2442,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1">
         <v>41262</v>
@@ -2451,7 +2481,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6" s="64" t="s">
         <v>9</v>
@@ -2459,7 +2489,7 @@
       <c r="I6" s="64"/>
       <c r="J6" s="5">
         <f>SUMIF(B:B,H6,E:E)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2470,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1">
         <v>41290</v>
@@ -2479,7 +2509,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" s="62" t="s">
         <v>15</v>
@@ -2487,7 +2517,7 @@
       <c r="I7" s="63"/>
       <c r="J7" s="10">
         <f>SUM(J2:J6)</f>
-        <v>28.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2498,7 +2528,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1">
         <v>41304</v>
@@ -2507,7 +2537,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2518,7 +2548,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1">
         <v>41325</v>
@@ -2527,7 +2557,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2538,7 +2568,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1">
         <v>41340</v>
@@ -2547,7 +2577,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2558,7 +2588,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" s="1">
         <v>41227</v>
@@ -2567,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2578,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D12" s="1">
         <v>41227</v>
@@ -2587,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>5</v>
@@ -2604,7 +2634,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D13" s="1">
         <v>41227</v>
@@ -2613,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H13" s="34" t="s">
         <v>27</v>
@@ -2628,10 +2658,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1">
         <v>41244</v>
@@ -2640,14 +2670,14 @@
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="4">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>22.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2655,10 +2685,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1">
         <v>41244</v>
@@ -2667,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H15" s="34" t="s">
         <v>28</v>
@@ -2678,14 +2708,48 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41395</v>
+      </c>
+      <c r="E16" s="26">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41396</v>
+      </c>
+      <c r="E17" s="26">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -2721,7 +2785,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2767,10 +2831,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7">
         <v>41227</v>
@@ -2779,10 +2843,10 @@
         <v>4.5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="69"/>
       <c r="J2" s="4">
@@ -2795,10 +2859,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1">
         <v>41241</v>
@@ -2807,10 +2871,10 @@
         <v>4.5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="71"/>
       <c r="J3" s="4">
@@ -2823,10 +2887,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="9">
         <v>41269</v>
@@ -2835,15 +2899,15 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="71"/>
       <c r="J4" s="4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2851,10 +2915,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" s="9">
         <v>41271</v>
@@ -2863,15 +2927,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="73"/>
       <c r="J5" s="4">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2879,10 +2943,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1">
         <v>41276</v>
@@ -2891,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H6" s="62" t="s">
         <v>15</v>
@@ -2899,7 +2963,7 @@
       <c r="I6" s="67"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2907,10 +2971,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="8">
         <v>41278</v>
@@ -2919,7 +2983,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2927,10 +2991,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1">
         <v>41278</v>
@@ -2939,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2947,10 +3011,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" s="7">
         <v>41318</v>
@@ -2959,7 +3023,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2967,10 +3031,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1">
         <v>41355</v>
@@ -2979,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2987,10 +3051,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1">
         <v>41355</v>
@@ -2999,7 +3063,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>5</v>
@@ -3013,10 +3077,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D12" s="1">
         <v>41356</v>
@@ -3025,7 +3089,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>27</v>
@@ -3040,10 +3104,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D13" s="1">
         <v>41356</v>
@@ -3052,14 +3116,14 @@
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3067,10 +3131,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1">
         <v>41357</v>
@@ -3079,7 +3143,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>28</v>
@@ -3094,10 +3158,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D15" s="1">
         <v>41357</v>
@@ -3106,7 +3170,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3114,10 +3178,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="1">
         <v>41358</v>
@@ -3126,7 +3190,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3134,10 +3198,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1">
         <v>41358</v>
@@ -3146,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3154,10 +3218,10 @@
         <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1">
         <v>41366</v>
@@ -3166,14 +3230,48 @@
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41391</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41392</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
@@ -3337,6 +3435,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3349,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3397,10 +3496,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="7">
         <v>41227</v>
@@ -3409,10 +3508,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2" s="68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="69"/>
       <c r="J2" s="37">
@@ -3425,10 +3524,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="7">
         <v>41234</v>
@@ -3437,10 +3536,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="71"/>
       <c r="J3" s="37">
@@ -3453,10 +3552,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1">
         <v>41238</v>
@@ -3465,10 +3564,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="71"/>
       <c r="J4" s="37">
@@ -3481,10 +3580,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8">
         <v>41241</v>
@@ -3493,15 +3592,15 @@
         <v>4.5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="73"/>
       <c r="J5" s="37">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>72.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3509,10 +3608,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1">
         <v>41248</v>
@@ -3526,7 +3625,7 @@
       <c r="I6" s="67"/>
       <c r="J6" s="10">
         <f>SUM(J2:J5)</f>
-        <v>106.5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3534,10 +3633,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1">
         <v>41248</v>
@@ -3551,10 +3650,10 @@
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1">
         <v>41255</v>
@@ -3568,10 +3667,10 @@
         <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="7">
         <v>41261</v>
@@ -3580,7 +3679,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3588,10 +3687,10 @@
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7">
         <v>41261</v>
@@ -3600,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3608,10 +3707,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1">
         <v>41262</v>
@@ -3620,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>5</v>
@@ -3634,10 +3733,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1">
         <v>41270</v>
@@ -3646,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>27</v>
@@ -3661,10 +3760,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1">
         <v>41271</v>
@@ -3673,14 +3772,14 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="37">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>2.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3688,10 +3787,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1">
         <v>41274</v>
@@ -3700,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>28</v>
@@ -3715,10 +3814,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1">
         <v>40912</v>
@@ -3727,7 +3826,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3735,10 +3834,10 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1">
         <v>40913</v>
@@ -3747,7 +3846,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3755,10 +3854,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1">
         <v>41283</v>
@@ -3767,7 +3866,7 @@
         <v>4.5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3775,10 +3874,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1">
         <v>41284</v>
@@ -3787,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3795,10 +3894,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1">
         <v>41284</v>
@@ -3807,7 +3906,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3815,10 +3914,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1">
         <v>41290</v>
@@ -3827,7 +3926,7 @@
         <v>1.5</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3835,10 +3934,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1">
         <v>41298</v>
@@ -3847,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3855,10 +3954,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" s="1">
         <v>41301</v>
@@ -3867,7 +3966,7 @@
         <v>6.5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3875,10 +3974,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="1">
         <v>41302</v>
@@ -3887,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3895,10 +3994,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24" s="1">
         <v>41303</v>
@@ -3907,7 +4006,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3915,10 +4014,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" s="1">
         <v>41322</v>
@@ -3927,7 +4026,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3935,10 +4034,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D26" s="1">
         <v>41326</v>
@@ -3947,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3955,10 +4054,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1">
         <v>41327</v>
@@ -3967,7 +4066,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3975,10 +4074,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D28" s="1">
         <v>41328</v>
@@ -3987,7 +4086,7 @@
         <v>7.5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3995,10 +4094,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D29" s="1">
         <v>41353</v>
@@ -4007,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4015,10 +4114,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30" s="1">
         <v>41353</v>
@@ -4027,7 +4126,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4035,10 +4134,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="1">
         <v>41353</v>
@@ -4047,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4055,10 +4154,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D32" s="1">
         <v>41353</v>
@@ -4067,7 +4166,7 @@
         <v>0.5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -4075,10 +4174,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D33" s="1">
         <v>41353</v>
@@ -4087,7 +4186,7 @@
         <v>0.5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -4095,10 +4194,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D34" s="1">
         <v>41353</v>
@@ -4107,11 +4206,28 @@
         <v>0.5</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="1"/>
+      <c r="A35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41356</v>
+      </c>
+      <c r="E35" s="45">
+        <v>4.5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
@@ -4243,7 +4359,7 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4290,10 +4406,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="7">
         <v>41278</v>
@@ -4302,15 +4418,15 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="66"/>
       <c r="J2" s="41">
         <f>SUMIF(B:B,H2,E:E)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4318,10 +4434,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="7">
         <v>41280</v>
@@ -4330,10 +4446,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="66"/>
       <c r="J3" s="41">
@@ -4346,10 +4462,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="8">
         <v>41281</v>
@@ -4358,10 +4474,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="66"/>
       <c r="J4" s="41">
@@ -4374,10 +4490,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="7">
         <v>41318</v>
@@ -4386,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="62" t="s">
         <v>15</v>
@@ -4394,7 +4510,7 @@
       <c r="I5" s="67"/>
       <c r="J5" s="10">
         <f>SUM(J2:J4)</f>
-        <v>99.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4402,10 +4518,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="8">
         <v>41319</v>
@@ -4414,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4422,10 +4538,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="8">
         <v>41319</v>
@@ -4434,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4442,10 +4558,10 @@
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="8">
         <v>41325</v>
@@ -4454,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4462,10 +4578,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1">
         <v>41325</v>
@@ -4474,7 +4590,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4482,10 +4598,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1">
         <v>41326</v>
@@ -4494,7 +4610,7 @@
         <v>4.5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>5</v>
@@ -4508,10 +4624,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1">
         <v>41326</v>
@@ -4520,7 +4636,7 @@
         <v>4.5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>27</v>
@@ -4535,10 +4651,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1">
         <v>41340</v>
@@ -4547,14 +4663,14 @@
         <v>4.5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="41">
         <f>SUMIF(A:A,H12,E:E)</f>
-        <v>38.5</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4562,10 +4678,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1">
         <v>41340</v>
@@ -4574,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>28</v>
@@ -4589,10 +4705,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="1">
         <v>41332</v>
@@ -4601,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4609,10 +4725,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1">
         <v>41343</v>
@@ -4621,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4629,10 +4745,10 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1">
         <v>41345</v>
@@ -4641,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -4653,10 +4769,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="1">
         <v>41316</v>
@@ -4665,7 +4781,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -4677,10 +4793,10 @@
         <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1">
         <v>41316</v>
@@ -4689,7 +4805,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -4701,10 +4817,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D19" s="1">
         <v>41356</v>
@@ -4713,7 +4829,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -4725,10 +4841,10 @@
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20" s="1">
         <v>41356</v>
@@ -4737,7 +4853,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -4749,10 +4865,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1">
         <v>41357</v>
@@ -4761,7 +4877,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -4773,10 +4889,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1">
         <v>41357</v>
@@ -4785,7 +4901,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -4797,10 +4913,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" s="1">
         <v>41334</v>
@@ -4809,7 +4925,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -4821,10 +4937,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D24" s="1">
         <v>41335</v>
@@ -4833,7 +4949,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -4841,7 +4957,24 @@
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41389</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -5177,7 +5310,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5224,10 +5357,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1">
         <v>41347</v>
@@ -5236,10 +5369,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H2" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="69"/>
       <c r="J2" s="4">
@@ -5252,10 +5385,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="1">
         <v>41347</v>
@@ -5264,10 +5397,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="66"/>
       <c r="J3" s="4">
@@ -5276,20 +5409,54 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41384</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="H4" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="66"/>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41384</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="H5" s="66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="66"/>
       <c r="J5" s="41">
@@ -5298,40 +5465,108 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41394</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="H6" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="74"/>
       <c r="J6" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41396</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H7" s="72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="75"/>
       <c r="J7" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41396</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="H8" s="62" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="67"/>
       <c r="J8" s="10">
         <f>SUM(J2:J7)</f>
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41396</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
@@ -5353,7 +5588,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5362,7 +5597,7 @@
       </c>
       <c r="I14" s="4">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5371,7 +5606,7 @@
       </c>
       <c r="I15" s="33">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5394,6 +5629,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
